--- a/RW Files/TestModelRuns/09_September Models/Sept24MS_OpVsDev.xlsx
+++ b/RW Files/TestModelRuns/09_September Models/Sept24MS_OpVsDev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apivarnik\Desktop\GIT\MTOM\RW Files\TestModelRuns\09_September Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F687699-CC81-43A6-94C4-18EB865D54B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE3D655-D166-4462-A6FA-4D61C4847979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" activeTab="8" xr2:uid="{ACA32295-86C6-4435-AED7-5BA48188675B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="790" activeTab="2" xr2:uid="{ACA32295-86C6-4435-AED7-5BA48188675B}"/>
   </bookViews>
   <sheets>
     <sheet name="YearlyUse_Op" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="167">
   <si>
     <t>Thu</t>
   </si>
@@ -963,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AC3F8-66E7-43C6-A35F-151BF197CB9C}">
-  <dimension ref="A1:CB33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:CB27"/>
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6529 +976,454 @@
     <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>109</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44926</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" t="s">
-        <v>116</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>35</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44104</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>37.250000000084</v>
+        <v>2448427</v>
       </c>
       <c r="D3" s="2">
-        <v>87.0270000000816</v>
+        <v>2692800</v>
       </c>
       <c r="E3" s="2">
-        <v>66.070000000085699</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>82.450000000058793</v>
-      </c>
-      <c r="H3">
-        <v>4.5</v>
-      </c>
-      <c r="I3">
+        <v>2747800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2546082.0000026999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2748075.9999998002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2748075.9999998002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2486318.1510135899</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2748075.9999998002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2748075.9999998002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>32.370000000026899</v>
-      </c>
-      <c r="K3">
-        <v>383.46400000089898</v>
-      </c>
-      <c r="L3">
-        <v>3197.82232579329</v>
-      </c>
-      <c r="M3">
-        <v>266.19857943984499</v>
-      </c>
-      <c r="N3">
-        <v>450.31399027843503</v>
-      </c>
-      <c r="O3">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P3">
-        <v>107.48</v>
-      </c>
-      <c r="Q3">
-        <v>1168.10946541764</v>
-      </c>
-      <c r="R3">
-        <v>59.593527200004701</v>
-      </c>
-      <c r="S3">
-        <v>32.071472368701102</v>
-      </c>
-      <c r="T3">
-        <v>17.75</v>
-      </c>
-      <c r="U3">
-        <v>37.250000000084</v>
-      </c>
-      <c r="V3">
-        <v>23.176799128300001</v>
-      </c>
-      <c r="W3">
-        <v>81.449999999999903</v>
-      </c>
-      <c r="X3">
-        <v>7472.1325751640397</v>
-      </c>
-      <c r="Y3">
-        <v>0.82343472191650302</v>
-      </c>
-      <c r="Z3">
-        <v>81.449999999974693</v>
-      </c>
-      <c r="AA3">
-        <v>82.450000000058793</v>
-      </c>
-      <c r="AB3">
-        <v>30.384004333</v>
-      </c>
-      <c r="AC3">
-        <v>85.0269999999135</v>
-      </c>
-      <c r="AD3">
-        <v>107.48</v>
-      </c>
-      <c r="AE3">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF3">
-        <v>85.0269999999135</v>
-      </c>
-      <c r="AG3">
-        <v>1262.56777777652</v>
-      </c>
-      <c r="AH3">
-        <v>87.0270000000816</v>
-      </c>
-      <c r="AI3">
-        <v>14.9683412284</v>
-      </c>
-      <c r="AJ3">
-        <v>1464.23444444601</v>
-      </c>
-      <c r="AK3">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL3">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM3">
-        <v>87.128000000093095</v>
-      </c>
-      <c r="AN3">
-        <v>66.070000000085699</v>
-      </c>
-      <c r="AO3">
-        <v>35.4886376623</v>
-      </c>
-      <c r="AP3">
-        <v>97.210000000000207</v>
-      </c>
-      <c r="AQ3">
-        <v>6026.0138775262403</v>
-      </c>
-      <c r="AR3">
-        <v>10.972807776651599</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>97.209999999962903</v>
-      </c>
-      <c r="AU3">
-        <v>109209.999999921</v>
-      </c>
-      <c r="AV3">
-        <v>35</v>
-      </c>
-      <c r="AW3">
-        <v>5.6672105867200004</v>
-      </c>
-      <c r="AX3">
-        <v>63.07</v>
-      </c>
-      <c r="AY3">
-        <v>6495.5349744094401</v>
-      </c>
-      <c r="AZ3">
-        <v>7.8711258148900001</v>
-      </c>
-      <c r="BA3">
-        <v>1.7520105605257801</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>63.070000000043699</v>
-      </c>
-      <c r="BD3">
-        <v>383.46400000089898</v>
-      </c>
-      <c r="BE3">
-        <v>250.638260901</v>
-      </c>
-      <c r="BF3">
-        <v>601.93799999999896</v>
-      </c>
-      <c r="BG3">
-        <v>3597.1331045275601</v>
-      </c>
-      <c r="BH3">
-        <v>601.93799999972805</v>
-      </c>
-      <c r="BI3">
-        <v>45.889515695215302</v>
-      </c>
-      <c r="BJ3">
-        <v>348.10869569499999</v>
-      </c>
-      <c r="BK3">
-        <v>4971.9804031437397</v>
-      </c>
-      <c r="BL3">
-        <v>615.77500000045302</v>
-      </c>
-      <c r="BM3">
-        <v>32.370000000026899</v>
-      </c>
-      <c r="BN3">
-        <v>38.26</v>
-      </c>
-      <c r="BO3">
-        <v>2.4903721766731399</v>
-      </c>
-      <c r="BP3">
-        <v>6045.0107945866102</v>
-      </c>
-      <c r="BQ3">
-        <v>4.5</v>
-      </c>
-      <c r="BR3">
-        <v>17.75</v>
-      </c>
-      <c r="BS3">
-        <v>9303.1811866797798</v>
-      </c>
-      <c r="BT3">
-        <v>7</v>
-      </c>
-      <c r="BU3">
-        <v>29.37</v>
-      </c>
-      <c r="BV3">
-        <v>7621.9784155511697</v>
-      </c>
-      <c r="BW3">
-        <v>13000</v>
-      </c>
-      <c r="BX3">
-        <v>51.260000000030203</v>
-      </c>
-      <c r="BY3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2448426.99999922</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2495799.9999991101</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2554954.99999901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.7315635088891902E-10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-197000.00000011199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-192845.00000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1406294.99999685</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1648909.0000010999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1648909.0000010999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1368403.8489905801</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1396633.0000004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1455788.0000002999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1368403.8489905801</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1593633.00000294</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1648632.9999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4101534</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4273855</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4236526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BZ3">
-        <v>12</v>
-      </c>
-      <c r="CA3">
-        <v>43</v>
-      </c>
-      <c r="CB3">
-        <v>75.127999999924995</v>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4353568.0000015497</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4335622.9999973299</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4345793.9999975804</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>28.290000000044</v>
-      </c>
-      <c r="D4" s="2">
-        <v>82.209999999969995</v>
-      </c>
-      <c r="E4" s="2">
-        <v>68.020000000046494</v>
-      </c>
-      <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>78.2099999999419</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>9.0000000000000195</v>
-      </c>
-      <c r="J4">
-        <v>32.417999999926998</v>
-      </c>
-      <c r="K4">
-        <v>432.213999999078</v>
-      </c>
-      <c r="L4">
-        <v>3189.79392712657</v>
-      </c>
-      <c r="M4">
-        <v>242.05756416863099</v>
-      </c>
-      <c r="N4">
-        <v>401.96132873654801</v>
-      </c>
-      <c r="O4">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P4">
-        <v>107.48</v>
-      </c>
-      <c r="Q4">
-        <v>1166.22610489356</v>
-      </c>
-      <c r="R4">
-        <v>57.303527199991599</v>
-      </c>
-      <c r="S4">
-        <v>24.501624464766898</v>
-      </c>
-      <c r="T4">
-        <v>7.2900000000000098</v>
-      </c>
-      <c r="U4">
-        <v>28.290000000044</v>
-      </c>
-      <c r="V4">
-        <v>21.251175671199999</v>
-      </c>
-      <c r="W4">
-        <v>76.209999999999994</v>
-      </c>
-      <c r="X4">
-        <v>7464.8724937007801</v>
-      </c>
-      <c r="Y4">
-        <v>0.43266154143144397</v>
-      </c>
-      <c r="Z4">
-        <v>76.209999999927902</v>
-      </c>
-      <c r="AA4">
-        <v>78.2099999999419</v>
-      </c>
-      <c r="AB4">
-        <v>27.842352121200001</v>
-      </c>
-      <c r="AC4">
-        <v>78.2099999999419</v>
-      </c>
-      <c r="AD4">
-        <v>107.48</v>
-      </c>
-      <c r="AE4">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF4">
-        <v>78.2099999999419</v>
-      </c>
-      <c r="AG4">
-        <v>1792.39381720347</v>
-      </c>
-      <c r="AH4">
-        <v>82.209999999969995</v>
-      </c>
-      <c r="AI4">
-        <v>14.096409977</v>
-      </c>
-      <c r="AJ4">
-        <v>1337.0174731177899</v>
-      </c>
-      <c r="AK4">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL4">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM4">
-        <v>82.209999999969995</v>
-      </c>
-      <c r="AN4">
-        <v>68.020000000046494</v>
-      </c>
-      <c r="AO4">
-        <v>25.269869757599999</v>
-      </c>
-      <c r="AP4">
-        <v>69.220000000000198</v>
-      </c>
-      <c r="AQ4">
-        <v>6025.7980403215197</v>
-      </c>
-      <c r="AR4">
-        <v>7.1495336845608399</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>69.220000000098295</v>
-      </c>
-      <c r="AU4">
-        <v>94220.000000056199</v>
-      </c>
-      <c r="AV4">
-        <v>40</v>
-      </c>
-      <c r="AW4">
-        <v>2.1609945733</v>
-      </c>
-      <c r="AX4">
-        <v>63.019999999999797</v>
-      </c>
-      <c r="AY4">
-        <v>6492.0892678149503</v>
-      </c>
-      <c r="AZ4">
-        <v>2.9045625985200001</v>
-      </c>
-      <c r="BA4">
-        <v>1.12101527140381</v>
-      </c>
-      <c r="BB4">
-        <v>38.230349533950097</v>
-      </c>
-      <c r="BC4">
-        <v>24.7896504660613</v>
-      </c>
-      <c r="BD4">
-        <v>432.213999999078</v>
-      </c>
-      <c r="BE4">
-        <v>265.281540146</v>
-      </c>
-      <c r="BF4">
-        <v>639.99999999999704</v>
-      </c>
-      <c r="BG4">
-        <v>3594.7628228346398</v>
-      </c>
-      <c r="BH4">
-        <v>640.00000000013995</v>
-      </c>
-      <c r="BI4">
-        <v>31.3509003956535</v>
-      </c>
-      <c r="BJ4">
-        <v>356.56120987399999</v>
-      </c>
-      <c r="BK4">
-        <v>4954.2665637219598</v>
-      </c>
-      <c r="BL4">
-        <v>648.81100000003005</v>
-      </c>
-      <c r="BM4">
-        <v>32.417999999926998</v>
-      </c>
-      <c r="BN4">
-        <v>23.6</v>
-      </c>
-      <c r="BO4">
-        <v>1.5493605274722</v>
-      </c>
-      <c r="BP4">
-        <v>6044.8434487860804</v>
-      </c>
-      <c r="BQ4">
-        <v>5</v>
-      </c>
-      <c r="BR4">
-        <v>7.2900000000000098</v>
-      </c>
-      <c r="BS4">
-        <v>9301.5615270013004</v>
-      </c>
-      <c r="BT4">
-        <v>9.0000000000000195</v>
-      </c>
-      <c r="BU4">
-        <v>16.45</v>
-      </c>
-      <c r="BV4">
-        <v>7616.2070146981596</v>
-      </c>
-      <c r="BW4">
-        <v>17000.000000010499</v>
-      </c>
-      <c r="BX4">
-        <v>40.599999999980398</v>
-      </c>
-      <c r="BY4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4102440.9728895202</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4335622.9999973299</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4345793.9999975804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4101533.99999705</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4273854.9999986598</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4236526.0000017397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.5463127017762201E-9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.3194690526683802E-9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.7315635088891902E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BZ4">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>833027.00000267697</v>
+      </c>
+      <c r="D16" s="2">
+        <v>859031.99999827996</v>
+      </c>
+      <c r="E16" s="2">
+        <v>856532.00000141596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>835907.00000094401</v>
+      </c>
+      <c r="D17" s="2">
+        <v>861768.00000028196</v>
+      </c>
+      <c r="E17" s="2">
+        <v>859268.000003419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>832120.027110214</v>
+      </c>
+      <c r="D18" s="2">
+        <v>797263.999999605</v>
+      </c>
+      <c r="E18" s="2">
+        <v>747263.99999991001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>835000.02710848197</v>
+      </c>
+      <c r="D19" s="2">
+        <v>799999.99999998603</v>
+      </c>
+      <c r="E19" s="2">
+        <v>750000.00000029104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>832120.027110214</v>
+      </c>
+      <c r="D20" s="2">
+        <v>797263.999999605</v>
+      </c>
+      <c r="E20" s="2">
+        <v>747263.99999991001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>252000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>255000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>254125.000000192</v>
+      </c>
+      <c r="D22" s="2">
+        <v>300127.99999962503</v>
+      </c>
+      <c r="E22" s="2">
+        <v>300127.99999962503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>265117.49435013602</v>
+      </c>
+      <c r="D23" s="2">
+        <v>300127.99999962503</v>
+      </c>
+      <c r="E23" s="2">
+        <v>300127.99999962503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CA4">
-        <v>58</v>
-      </c>
-      <c r="CB4">
-        <v>110.20999999994901</v>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>252000.00000001999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>255000.00000031001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>259999.99999971199</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>25.0499999999411</v>
-      </c>
-      <c r="D5" s="2">
-        <v>23.519999999934399</v>
-      </c>
-      <c r="E5" s="2">
-        <v>70.990000000053698</v>
-      </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>19.519999999997498</v>
-      </c>
-      <c r="H5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>5.9999999999999698</v>
-      </c>
-      <c r="J5">
-        <v>21.457000000038001</v>
-      </c>
-      <c r="K5">
-        <v>359.283999999598</v>
-      </c>
-      <c r="L5">
-        <v>3197.2378246534699</v>
-      </c>
-      <c r="M5">
-        <v>220.38483071180801</v>
-      </c>
-      <c r="N5">
-        <v>409.29690213744198</v>
-      </c>
-      <c r="O5">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P5">
-        <v>107.48</v>
-      </c>
-      <c r="Q5">
-        <v>1165.9993260537899</v>
-      </c>
-      <c r="R5">
-        <v>56.253527200011803</v>
-      </c>
-      <c r="S5">
-        <v>27.962809052688002</v>
-      </c>
-      <c r="T5">
-        <v>5.05</v>
-      </c>
-      <c r="U5">
-        <v>25.0499999999411</v>
-      </c>
-      <c r="V5">
-        <v>4.8401114309600004</v>
-      </c>
-      <c r="W5">
-        <v>17.52</v>
-      </c>
-      <c r="X5">
-        <v>7466.0045800524804</v>
-      </c>
-      <c r="Y5">
-        <v>0.19442659912271401</v>
-      </c>
-      <c r="Z5">
-        <v>17.519999999997498</v>
-      </c>
-      <c r="AA5">
-        <v>19.519999999997498</v>
-      </c>
-      <c r="AB5">
-        <v>6.95958463841</v>
-      </c>
-      <c r="AC5">
-        <v>19.519999999997498</v>
-      </c>
-      <c r="AD5">
-        <v>107.48</v>
-      </c>
-      <c r="AE5">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF5">
-        <v>19.519999999997498</v>
-      </c>
-      <c r="AG5">
-        <v>1185.1277777795001</v>
-      </c>
-      <c r="AH5">
-        <v>23.519999999934399</v>
-      </c>
-      <c r="AI5">
-        <v>4.0003159305200002</v>
-      </c>
-      <c r="AJ5">
-        <v>395.26666666556503</v>
-      </c>
-      <c r="AK5">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL5">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM5">
-        <v>23.519999999934399</v>
-      </c>
-      <c r="AN5">
-        <v>70.990000000053698</v>
-      </c>
-      <c r="AO5">
-        <v>21.836787870599998</v>
-      </c>
-      <c r="AP5">
-        <v>59.860000000000198</v>
-      </c>
-      <c r="AQ5">
-        <v>6025.9982204068201</v>
-      </c>
-      <c r="AR5">
-        <v>3.3883473962939301</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>59.859999999996603</v>
-      </c>
-      <c r="AU5">
-        <v>89859.999999996595</v>
-      </c>
-      <c r="AV5">
-        <v>40</v>
-      </c>
-      <c r="AW5">
-        <v>5.1104682095999996</v>
-      </c>
-      <c r="AX5">
-        <v>60.989999999999696</v>
-      </c>
-      <c r="AY5">
-        <v>6488.7766217847702</v>
-      </c>
-      <c r="AZ5">
-        <v>7.0978725133299996</v>
-      </c>
-      <c r="BA5">
-        <v>0.68273345643612404</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>60.990000000053698</v>
-      </c>
-      <c r="BD5">
-        <v>359.283999999598</v>
-      </c>
-      <c r="BE5">
-        <v>263.37686229299999</v>
-      </c>
-      <c r="BF5">
-        <v>640.00000000000205</v>
-      </c>
-      <c r="BG5">
-        <v>3591.6400375984199</v>
-      </c>
-      <c r="BH5">
-        <v>639.99999999915894</v>
-      </c>
-      <c r="BI5">
-        <v>29.846703412024599</v>
-      </c>
-      <c r="BJ5">
-        <v>365.801197629</v>
-      </c>
-      <c r="BK5">
-        <v>4931.2619255617201</v>
-      </c>
-      <c r="BL5">
-        <v>641.72000000058097</v>
-      </c>
-      <c r="BM5">
-        <v>21.457000000038001</v>
-      </c>
-      <c r="BN5">
-        <v>20.83</v>
-      </c>
-      <c r="BO5">
-        <v>0.802778837670442</v>
-      </c>
-      <c r="BP5">
-        <v>6044.8232929133801</v>
-      </c>
-      <c r="BQ5">
+      <c r="C25" s="2">
+        <v>4.8322271930577698E-11</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-9.6644543861317601E-11</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-4.8322271930577698E-11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="BR5">
-        <v>5.05</v>
-      </c>
-      <c r="BS5">
-        <v>9300.8038198162594</v>
-      </c>
-      <c r="BT5">
-        <v>5.9999999999999698</v>
-      </c>
-      <c r="BU5">
-        <v>2.48</v>
-      </c>
-      <c r="BV5">
-        <v>7618.9704436679704</v>
-      </c>
-      <c r="BW5">
-        <v>14000</v>
-      </c>
-      <c r="BX5">
-        <v>34.829999999905802</v>
-      </c>
-      <c r="BY5">
-        <v>14</v>
-      </c>
-      <c r="BZ5">
-        <v>30</v>
-      </c>
-      <c r="CA5">
-        <v>47</v>
-      </c>
-      <c r="CB5">
-        <v>70.520000000102499</v>
+      <c r="C26" s="2">
+        <v>258767.00000027599</v>
+      </c>
+      <c r="D26" s="2">
+        <v>290785.99999992398</v>
+      </c>
+      <c r="E26" s="2">
+        <v>290785.99999992398</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>22.700000000093802</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="E6" s="2">
-        <v>66.020000000032496</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>19.980000000005301</v>
-      </c>
-      <c r="H6">
-        <v>3.5</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>15.839999999989301</v>
-      </c>
-      <c r="K6">
-        <v>345.82999999977898</v>
-      </c>
-      <c r="L6">
-        <v>3190.4850054984199</v>
-      </c>
-      <c r="M6">
-        <v>188.72569151552801</v>
-      </c>
-      <c r="N6">
-        <v>413.86659934125902</v>
-      </c>
-      <c r="O6">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P6">
-        <v>107.48</v>
-      </c>
-      <c r="Q6">
-        <v>1159.7532435047999</v>
-      </c>
-      <c r="R6">
-        <v>54.553527200036797</v>
-      </c>
-      <c r="S6">
-        <v>31.077900026252401</v>
-      </c>
-      <c r="T6">
-        <v>5.2</v>
-      </c>
-      <c r="U6">
-        <v>22.700000000093802</v>
-      </c>
-      <c r="V6">
-        <v>4.9665561563700003</v>
-      </c>
-      <c r="W6">
-        <v>17.98</v>
-      </c>
-      <c r="X6">
-        <v>7466.7035941600998</v>
-      </c>
-      <c r="Y6">
-        <v>0.15030279681021899</v>
-      </c>
-      <c r="Z6">
-        <v>17.9799999999913</v>
-      </c>
-      <c r="AA6">
-        <v>19.980000000005301</v>
-      </c>
-      <c r="AB6">
-        <v>7.1098753309299996</v>
-      </c>
-      <c r="AC6">
-        <v>19.980000000005301</v>
-      </c>
-      <c r="AD6">
-        <v>107.48</v>
-      </c>
-      <c r="AE6">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF6">
-        <v>19.980000000005301</v>
-      </c>
-      <c r="AG6">
-        <v>991.74462365572697</v>
-      </c>
-      <c r="AH6">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AI6">
-        <v>4.0785534019499998</v>
-      </c>
-      <c r="AJ6">
-        <v>389.997311827087</v>
-      </c>
-      <c r="AK6">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL6">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM6">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AN6">
-        <v>66.020000000032496</v>
-      </c>
-      <c r="AO6">
-        <v>26.0114878919</v>
-      </c>
-      <c r="AP6">
-        <v>71.329999999999899</v>
-      </c>
-      <c r="AQ6">
-        <v>6025.8166246719102</v>
-      </c>
-      <c r="AR6">
-        <v>1.71293119102664</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>71.329999999919806</v>
-      </c>
-      <c r="AU6">
-        <v>96330.000000094893</v>
-      </c>
-      <c r="AV6">
-        <v>32</v>
-      </c>
-      <c r="AW6">
-        <v>5.0599486910699998</v>
-      </c>
-      <c r="AX6">
-        <v>63.019999999999797</v>
-      </c>
-      <c r="AY6">
-        <v>6483.8232765419898</v>
-      </c>
-      <c r="AZ6">
-        <v>6.8010063052099996</v>
-      </c>
-      <c r="BA6">
-        <v>0.63913919654421103</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>63.0200000000114</v>
-      </c>
-      <c r="BD6">
-        <v>345.82999999977898</v>
-      </c>
-      <c r="BE6">
-        <v>293.848149546</v>
-      </c>
-      <c r="BF6">
-        <v>720.00000000000296</v>
-      </c>
-      <c r="BG6">
-        <v>3587.5654278871398</v>
-      </c>
-      <c r="BH6">
-        <v>720.00000000069997</v>
-      </c>
-      <c r="BI6">
-        <v>23.3573487117438</v>
-      </c>
-      <c r="BJ6">
-        <v>394.95719024900001</v>
-      </c>
-      <c r="BK6">
-        <v>4901.81545461715</v>
-      </c>
-      <c r="BL6">
-        <v>724.91699999936998</v>
-      </c>
-      <c r="BM6">
-        <v>15.839999999989301</v>
-      </c>
-      <c r="BN6">
-        <v>21.52</v>
-      </c>
-      <c r="BO6">
-        <v>0.56608255435710797</v>
-      </c>
-      <c r="BP6">
-        <v>6044.2671642060304</v>
-      </c>
-      <c r="BQ6">
-        <v>3.5</v>
-      </c>
-      <c r="BR6">
-        <v>5.2</v>
-      </c>
-      <c r="BS6">
-        <v>9299.5568717191509</v>
-      </c>
-      <c r="BT6">
-        <v>5</v>
-      </c>
-      <c r="BU6">
-        <v>1.84</v>
-      </c>
-      <c r="BV6">
-        <v>7621.2794295931699</v>
-      </c>
-      <c r="BW6">
-        <v>11999.999999997201</v>
-      </c>
-      <c r="BX6">
-        <v>33.519999999913402</v>
-      </c>
-      <c r="BY6">
-        <v>12</v>
-      </c>
-      <c r="BZ6">
-        <v>25</v>
-      </c>
-      <c r="CA6">
-        <v>37</v>
-      </c>
-      <c r="CB6">
-        <v>60.9799999999885</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
+        <v>245649.50565015999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>245657.99999979799</v>
+      </c>
+      <c r="E27" s="2">
+        <v>250658.000000011</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44227</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20.699999999993</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="E7" s="2">
-        <v>73.020000000081495</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>20.9799999999906</v>
-      </c>
-      <c r="H7">
-        <v>3.5</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>14.8400000000041</v>
-      </c>
-      <c r="K7">
-        <v>335.829999999709</v>
-      </c>
-      <c r="L7">
-        <v>3190.4642776374799</v>
-      </c>
-      <c r="M7">
-        <v>155.15337180441199</v>
-      </c>
-      <c r="N7">
-        <v>415.43565993062998</v>
-      </c>
-      <c r="O7">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P7">
-        <v>107.48</v>
-      </c>
-      <c r="Q7">
-        <v>1152.51227834575</v>
-      </c>
-      <c r="R7">
-        <v>52.853527200061698</v>
-      </c>
-      <c r="S7">
-        <v>33.190367983122201</v>
-      </c>
-      <c r="T7">
-        <v>5.2</v>
-      </c>
-      <c r="U7">
-        <v>20.699999999993</v>
-      </c>
-      <c r="V7">
-        <v>5.2295329225999998</v>
-      </c>
-      <c r="W7">
-        <v>18.98</v>
-      </c>
-      <c r="X7">
-        <v>7466.9428444225596</v>
-      </c>
-      <c r="Y7">
-        <v>0.15093941045550799</v>
-      </c>
-      <c r="Z7">
-        <v>18.979999999998299</v>
-      </c>
-      <c r="AA7">
-        <v>20.9799999999906</v>
-      </c>
-      <c r="AB7">
-        <v>7.46572494709</v>
-      </c>
-      <c r="AC7">
-        <v>20.9799999999906</v>
-      </c>
-      <c r="AD7">
-        <v>107.48</v>
-      </c>
-      <c r="AE7">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF7">
-        <v>20.9799999999906</v>
-      </c>
-      <c r="AG7">
-        <v>894.16397849375301</v>
-      </c>
-      <c r="AH7">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AI7">
-        <v>4.0785534019499998</v>
-      </c>
-      <c r="AJ7">
-        <v>389.997311827087</v>
-      </c>
-      <c r="AK7">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL7">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM7">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AN7">
-        <v>73.020000000081495</v>
-      </c>
-      <c r="AO7">
-        <v>26.007374749499999</v>
-      </c>
-      <c r="AP7">
-        <v>71.329999999999899</v>
-      </c>
-      <c r="AQ7">
-        <v>6025.8160672572103</v>
-      </c>
-      <c r="AR7">
-        <v>1.71155703156324</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>71.329999999919806</v>
-      </c>
-      <c r="AU7">
-        <v>94330.000000080894</v>
-      </c>
-      <c r="AV7">
-        <v>30</v>
-      </c>
-      <c r="AW7">
-        <v>4.7546938456900003</v>
-      </c>
-      <c r="AX7">
-        <v>63.019999999999797</v>
-      </c>
-      <c r="AY7">
-        <v>6477.7637945537999</v>
-      </c>
-      <c r="AZ7">
-        <v>6.3907175345300002</v>
-      </c>
-      <c r="BA7">
-        <v>0.552319710940821</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>63.0200000000114</v>
-      </c>
-      <c r="BD7">
-        <v>335.829999999709</v>
-      </c>
-      <c r="BE7">
-        <v>347.40841682500002</v>
-      </c>
-      <c r="BF7">
-        <v>860.00000000000296</v>
-      </c>
-      <c r="BG7">
-        <v>3581.97627647637</v>
-      </c>
-      <c r="BH7">
-        <v>859.99999999950899</v>
-      </c>
-      <c r="BI7">
-        <v>6.9405093181602497</v>
-      </c>
-      <c r="BJ7">
-        <v>466.946796807</v>
-      </c>
-      <c r="BK7">
-        <v>4862.4739345616299</v>
-      </c>
-      <c r="BL7">
-        <v>870.90200000038897</v>
-      </c>
-      <c r="BM7">
-        <v>14.8400000000041</v>
-      </c>
-      <c r="BN7">
-        <v>21.52</v>
-      </c>
-      <c r="BO7">
-        <v>0.56096515835024796</v>
-      </c>
-      <c r="BP7">
-        <v>6043.6192515091798</v>
-      </c>
-      <c r="BQ7">
-        <v>3.5</v>
-      </c>
-      <c r="BR7">
-        <v>5.2</v>
-      </c>
-      <c r="BS7">
-        <v>9298.2805386810905</v>
-      </c>
-      <c r="BT7">
-        <v>4</v>
-      </c>
-      <c r="BU7">
-        <v>1.84</v>
-      </c>
-      <c r="BV7">
-        <v>7622.7481424868702</v>
-      </c>
-      <c r="BW7">
-        <v>10999.999999990199</v>
-      </c>
-      <c r="BX7">
-        <v>32.519999999906403</v>
-      </c>
-      <c r="BY7">
-        <v>11</v>
-      </c>
-      <c r="BZ7">
-        <v>23</v>
-      </c>
-      <c r="CA7">
-        <v>31</v>
-      </c>
-      <c r="CB7">
-        <v>54.979999999946401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2">
-        <v>17.6999999999944</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21.660000000063899</v>
-      </c>
-      <c r="E8" s="2">
-        <v>70.929999999956195</v>
-      </c>
-      <c r="F8">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>18.659999999991001</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>18.662000000005499</v>
-      </c>
-      <c r="K8">
-        <v>330.67199999906302</v>
-      </c>
-      <c r="L8">
-        <v>3194.68360705245</v>
-      </c>
-      <c r="M8">
-        <v>125.751278987944</v>
-      </c>
-      <c r="N8">
-        <v>417.29147708198002</v>
-      </c>
-      <c r="O8">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P8">
-        <v>107.48</v>
-      </c>
-      <c r="Q8">
-        <v>1150.88976636456</v>
-      </c>
-      <c r="R8">
-        <v>51.153527200005598</v>
-      </c>
-      <c r="S8">
-        <v>35.458169246707698</v>
-      </c>
-      <c r="T8">
-        <v>4.7</v>
-      </c>
-      <c r="U8">
-        <v>17.6999999999944</v>
-      </c>
-      <c r="V8">
-        <v>4.3412564679200001</v>
-      </c>
-      <c r="W8">
-        <v>15.66</v>
-      </c>
-      <c r="X8">
-        <v>7467.2248073818801</v>
-      </c>
-      <c r="Y8">
-        <v>0.18418284875981999</v>
-      </c>
-      <c r="Z8">
-        <v>15.6599999999966</v>
-      </c>
-      <c r="AA8">
-        <v>18.659999999991001</v>
-      </c>
-      <c r="AB8">
-        <v>6.6652058136600001</v>
-      </c>
-      <c r="AC8">
-        <v>18.659999999991001</v>
-      </c>
-      <c r="AD8">
-        <v>107.48</v>
-      </c>
-      <c r="AE8">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF8">
-        <v>18.659999999991001</v>
-      </c>
-      <c r="AG8">
-        <v>912.18154761969402</v>
-      </c>
-      <c r="AH8">
-        <v>21.660000000063899</v>
-      </c>
-      <c r="AI8">
-        <v>3.6839644156000002</v>
-      </c>
-      <c r="AJ8">
-        <v>390.00892857257901</v>
-      </c>
-      <c r="AK8">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL8">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM8">
-        <v>21.660000000063899</v>
-      </c>
-      <c r="AN8">
-        <v>70.929999999956195</v>
-      </c>
-      <c r="AO8">
-        <v>23.517191800900001</v>
-      </c>
-      <c r="AP8">
-        <v>64.419999999999803</v>
-      </c>
-      <c r="AQ8">
-        <v>6025.9295328083899</v>
-      </c>
-      <c r="AR8">
-        <v>2.1218978663227901</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>64.420000000066096</v>
-      </c>
-      <c r="AU8">
-        <v>85420.000000066095</v>
-      </c>
-      <c r="AV8">
-        <v>28</v>
-      </c>
-      <c r="AW8">
-        <v>3.97142893446</v>
-      </c>
-      <c r="AX8">
-        <v>56.93</v>
-      </c>
-      <c r="AY8">
-        <v>6471.5362660433002</v>
-      </c>
-      <c r="AZ8">
-        <v>5.9098644858</v>
-      </c>
-      <c r="BA8">
-        <v>0.47209281639995399</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>56.929999999956202</v>
-      </c>
-      <c r="BD8">
-        <v>330.67199999906302</v>
-      </c>
-      <c r="BE8">
-        <v>299.582190862</v>
-      </c>
-      <c r="BF8">
-        <v>750</v>
-      </c>
-      <c r="BG8">
-        <v>3577.3575032152198</v>
-      </c>
-      <c r="BH8">
-        <v>750.00000000056002</v>
-      </c>
-      <c r="BI8">
-        <v>7.19110468682379</v>
-      </c>
-      <c r="BJ8">
-        <v>445.80683163999998</v>
-      </c>
-      <c r="BK8">
-        <v>4830.8799261265403</v>
-      </c>
-      <c r="BL8">
-        <v>760.10399999969798</v>
-      </c>
-      <c r="BM8">
-        <v>18.662000000005499</v>
-      </c>
-      <c r="BN8">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="BO8">
-        <v>0.70051197853710701</v>
-      </c>
-      <c r="BP8">
-        <v>6043.4737041994704</v>
-      </c>
-      <c r="BQ8">
-        <v>3</v>
-      </c>
-      <c r="BR8">
-        <v>4.7</v>
-      </c>
-      <c r="BS8">
-        <v>9296.9734975393603</v>
-      </c>
-      <c r="BT8">
-        <v>4</v>
-      </c>
-      <c r="BU8">
-        <v>1.67</v>
-      </c>
-      <c r="BV8">
-        <v>7624.2631666994703</v>
-      </c>
-      <c r="BW8">
-        <v>9000.0000000027903</v>
-      </c>
-      <c r="BX8">
-        <v>28.440000000042598</v>
-      </c>
-      <c r="BY8">
-        <v>9</v>
-      </c>
-      <c r="BZ8">
-        <v>21</v>
-      </c>
-      <c r="CA8">
-        <v>29</v>
-      </c>
-      <c r="CB8">
-        <v>50.660000000035801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30.2000000000378</v>
-      </c>
-      <c r="D9" s="2">
-        <v>28.979999999981501</v>
-      </c>
-      <c r="E9" s="2">
-        <v>107.479999999988</v>
-      </c>
-      <c r="F9">
-        <v>45</v>
-      </c>
-      <c r="G9">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>49.660999999926801</v>
-      </c>
-      <c r="K9">
-        <v>453.629000000838</v>
-      </c>
-      <c r="L9">
-        <v>3211.1713915750302</v>
-      </c>
-      <c r="M9">
-        <v>107.851651170238</v>
-      </c>
-      <c r="N9">
-        <v>427.140191591757</v>
-      </c>
-      <c r="O9">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P9">
-        <v>107.48</v>
-      </c>
-      <c r="Q9">
-        <v>1171.9692886068201</v>
-      </c>
-      <c r="R9">
-        <v>48.953527200009297</v>
-      </c>
-      <c r="S9">
-        <v>38.4867508442507</v>
-      </c>
-      <c r="T9">
-        <v>5.2</v>
-      </c>
-      <c r="U9">
-        <v>30.2000000000378</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>19.98</v>
-      </c>
-      <c r="X9">
-        <v>7468.7102697834598</v>
-      </c>
-      <c r="Y9">
-        <v>0.37128548994168398</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AB9">
-        <v>8.5332737955799995</v>
-      </c>
-      <c r="AC9">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AD9">
-        <v>107.48</v>
-      </c>
-      <c r="AE9">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF9">
-        <v>23.9799999999465</v>
-      </c>
-      <c r="AG9">
-        <v>1138.11559139869</v>
-      </c>
-      <c r="AH9">
-        <v>28.979999999981501</v>
-      </c>
-      <c r="AI9">
-        <v>4.9289607001000002</v>
-      </c>
-      <c r="AJ9">
-        <v>471.31451612873201</v>
-      </c>
-      <c r="AK9">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL9">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM9">
-        <v>28.979999999981501</v>
-      </c>
-      <c r="AN9">
-        <v>107.479999999988</v>
-      </c>
-      <c r="AO9">
-        <v>31.883261991000001</v>
-      </c>
-      <c r="AP9">
-        <v>87.310000000000102</v>
-      </c>
-      <c r="AQ9">
-        <v>6026.3712822506504</v>
-      </c>
-      <c r="AR9">
-        <v>3.0227040236223699</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>87.310000000027401</v>
-      </c>
-      <c r="AU9">
-        <v>157310.000000083</v>
-      </c>
-      <c r="AV9">
-        <v>45</v>
-      </c>
-      <c r="AW9">
-        <v>4.0374666294599999</v>
-      </c>
-      <c r="AX9">
-        <v>62.480000000000103</v>
-      </c>
-      <c r="AY9">
-        <v>6467.2614104002596</v>
-      </c>
-      <c r="AZ9">
-        <v>5.4267024589500004</v>
-      </c>
-      <c r="BA9">
-        <v>0.41962781812023098</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>62.480000000107502</v>
-      </c>
-      <c r="BD9">
-        <v>453.629000000838</v>
-      </c>
-      <c r="BE9">
-        <v>316.51913734599998</v>
-      </c>
-      <c r="BF9">
-        <v>800.00000000000296</v>
-      </c>
-      <c r="BG9">
-        <v>3573.38115843175</v>
-      </c>
-      <c r="BH9">
-        <v>799.99999999908903</v>
-      </c>
-      <c r="BI9">
-        <v>11.89275482383</v>
-      </c>
-      <c r="BJ9">
-        <v>425.42894804500003</v>
-      </c>
-      <c r="BK9">
-        <v>4804.3418696237504</v>
-      </c>
-      <c r="BL9">
-        <v>813.61600000048998</v>
-      </c>
-      <c r="BM9">
-        <v>49.660999999926801</v>
-      </c>
-      <c r="BN9">
-        <v>21.52</v>
-      </c>
-      <c r="BO9">
-        <v>1.4214777547484201</v>
-      </c>
-      <c r="BP9">
-        <v>6045.3524093503902</v>
-      </c>
-      <c r="BQ9">
-        <v>3</v>
-      </c>
-      <c r="BR9">
-        <v>5.2</v>
-      </c>
-      <c r="BS9">
-        <v>9295.2294019028795</v>
-      </c>
-      <c r="BT9">
-        <v>5</v>
-      </c>
-      <c r="BU9">
-        <v>1.84</v>
-      </c>
-      <c r="BV9">
-        <v>7626.1838255905404</v>
-      </c>
-      <c r="BW9">
-        <v>14999.9999999965</v>
-      </c>
-      <c r="BX9">
-        <v>36.519999999934399</v>
-      </c>
-      <c r="BY9">
-        <v>15</v>
-      </c>
-      <c r="BZ9">
-        <v>70</v>
-      </c>
-      <c r="CA9">
-        <v>46</v>
-      </c>
-      <c r="CB9">
-        <v>69.980000000051504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44316</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>63.000000000042</v>
-      </c>
-      <c r="D10" s="2">
-        <v>62.679999999914202</v>
-      </c>
-      <c r="E10" s="2">
-        <v>113.46999999999299</v>
-      </c>
-      <c r="F10">
-        <v>70</v>
-      </c>
-      <c r="G10">
-        <v>52.679999999914202</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>85.244999999900699</v>
-      </c>
-      <c r="K10">
-        <v>643.21700000094995</v>
-      </c>
-      <c r="L10">
-        <v>3234.3767950505398</v>
-      </c>
-      <c r="M10">
-        <v>113.81313864671399</v>
-      </c>
-      <c r="N10">
-        <v>446.82514663517799</v>
-      </c>
-      <c r="O10">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P10">
-        <v>107.48</v>
-      </c>
-      <c r="Q10">
-        <v>1212.48443489334</v>
-      </c>
-      <c r="R10">
-        <v>43.953527200039801</v>
-      </c>
-      <c r="S10">
-        <v>51.470586254622603</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>63.000000000042</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>42.68</v>
-      </c>
-      <c r="X10">
-        <v>7471.6233686351597</v>
-      </c>
-      <c r="Y10">
-        <v>0.63504495657628401</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>52.679999999914202</v>
-      </c>
-      <c r="AB10">
-        <v>18.746157779400001</v>
-      </c>
-      <c r="AC10">
-        <v>52.679999999914202</v>
-      </c>
-      <c r="AD10">
-        <v>107.48</v>
-      </c>
-      <c r="AE10">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF10">
-        <v>52.679999999914202</v>
-      </c>
-      <c r="AG10">
-        <v>1944.0666666659299</v>
-      </c>
-      <c r="AH10">
-        <v>62.679999999914202</v>
-      </c>
-      <c r="AI10">
-        <v>10.660705889700001</v>
-      </c>
-      <c r="AJ10">
-        <v>1053.37222222078</v>
-      </c>
-      <c r="AK10">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL10">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM10">
-        <v>62.679999999914202</v>
-      </c>
-      <c r="AN10">
-        <v>113.46999999999299</v>
-      </c>
-      <c r="AO10">
-        <v>30.855296951500002</v>
-      </c>
-      <c r="AP10">
-        <v>84.500000000000199</v>
-      </c>
-      <c r="AQ10">
-        <v>6026.9904247703398</v>
-      </c>
-      <c r="AR10">
-        <v>4.8363802761304697</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>84.499999999957893</v>
-      </c>
-      <c r="AU10">
-        <v>269500.00000016799</v>
-      </c>
-      <c r="AV10">
-        <v>70</v>
-      </c>
-      <c r="AW10">
-        <v>4.0115285203499997</v>
-      </c>
-      <c r="AX10">
-        <v>63.469999999999899</v>
-      </c>
-      <c r="AY10">
-        <v>6468.7294695866103</v>
-      </c>
-      <c r="AZ10">
-        <v>5.5715673893700002</v>
-      </c>
-      <c r="BA10">
-        <v>0.56851252282989795</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>63.469999999993199</v>
-      </c>
-      <c r="BD10">
-        <v>643.21700000094995</v>
-      </c>
-      <c r="BE10">
-        <v>275.38323183099999</v>
-      </c>
-      <c r="BF10">
-        <v>700</v>
-      </c>
-      <c r="BG10">
-        <v>3572.5324935367398</v>
-      </c>
-      <c r="BH10">
-        <v>699.99999999999898</v>
-      </c>
-      <c r="BI10">
-        <v>18.617363842712699</v>
-      </c>
-      <c r="BJ10">
-        <v>382.47671087600003</v>
-      </c>
-      <c r="BK10">
-        <v>4798.7566590594097</v>
-      </c>
-      <c r="BL10">
-        <v>715.79000000028896</v>
-      </c>
-      <c r="BM10">
-        <v>85.244999999900699</v>
-      </c>
-      <c r="BN10">
-        <v>20.83</v>
-      </c>
-      <c r="BO10">
-        <v>2.23785371419679</v>
-      </c>
-      <c r="BP10">
-        <v>6048.8828100065602</v>
-      </c>
-      <c r="BQ10">
-        <v>5</v>
-      </c>
-      <c r="BR10">
-        <v>10</v>
-      </c>
-      <c r="BS10">
-        <v>9291.0166101049799</v>
-      </c>
-      <c r="BT10">
-        <v>15</v>
-      </c>
-      <c r="BU10">
-        <v>1.79</v>
-      </c>
-      <c r="BV10">
-        <v>7633.5449980314897</v>
-      </c>
-      <c r="BW10">
-        <v>31000.000000084001</v>
-      </c>
-      <c r="BX10">
-        <v>51.830000000073902</v>
-      </c>
-      <c r="BY10">
-        <v>31</v>
-      </c>
-      <c r="BZ10">
-        <v>185</v>
-      </c>
-      <c r="CA10">
-        <v>95</v>
-      </c>
-      <c r="CB10">
-        <v>115.679999999956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44347</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2">
-        <v>170.00000000010499</v>
-      </c>
-      <c r="D11" s="2">
-        <v>82.909999999909701</v>
-      </c>
-      <c r="E11" s="2">
-        <v>141.27999999996501</v>
-      </c>
-      <c r="F11">
-        <v>125</v>
-      </c>
-      <c r="G11">
-        <v>57.9099999999518</v>
-      </c>
-      <c r="H11">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>53</v>
-      </c>
-      <c r="J11">
-        <v>174.21499999996399</v>
-      </c>
-      <c r="K11">
-        <v>1301.27999999897</v>
-      </c>
-      <c r="L11">
-        <v>3303.62874480753</v>
-      </c>
-      <c r="M11">
-        <v>151.396568303995</v>
-      </c>
-      <c r="N11">
-        <v>577.94449665622699</v>
-      </c>
-      <c r="O11">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P11">
-        <v>107.48</v>
-      </c>
-      <c r="Q11">
-        <v>1325.2842088945799</v>
-      </c>
-      <c r="R11">
-        <v>53.953527200059902</v>
-      </c>
-      <c r="S11">
-        <v>73.049929085582207</v>
-      </c>
-      <c r="T11">
-        <v>14</v>
-      </c>
-      <c r="U11">
-        <v>170.00000000010499</v>
-      </c>
-      <c r="V11">
-        <v>1.78090473494</v>
-      </c>
-      <c r="W11">
-        <v>37.909999999999997</v>
-      </c>
-      <c r="X11">
-        <v>7489.5622285761101</v>
-      </c>
-      <c r="Y11">
-        <v>0.97064997850353296</v>
-      </c>
-      <c r="Z11">
-        <v>6.1237881494507302</v>
-      </c>
-      <c r="AA11">
-        <v>57.9099999999518</v>
-      </c>
-      <c r="AB11">
-        <v>20.607251271999999</v>
-      </c>
-      <c r="AC11">
-        <v>57.9099999999518</v>
-      </c>
-      <c r="AD11">
-        <v>107.48</v>
-      </c>
-      <c r="AE11">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF11">
-        <v>57.9099999999518</v>
-      </c>
-      <c r="AG11">
-        <v>3836.7083333245801</v>
-      </c>
-      <c r="AH11">
-        <v>82.909999999909701</v>
-      </c>
-      <c r="AI11">
-        <v>14.101453818</v>
-      </c>
-      <c r="AJ11">
-        <v>1348.4018817189601</v>
-      </c>
-      <c r="AK11">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL11">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM11">
-        <v>82.909999999909701</v>
-      </c>
-      <c r="AN11">
-        <v>141.27999999996501</v>
-      </c>
-      <c r="AO11">
-        <v>22.5016348266</v>
-      </c>
-      <c r="AP11">
-        <v>61.489999999999696</v>
-      </c>
-      <c r="AQ11">
-        <v>6028.8177821522204</v>
-      </c>
-      <c r="AR11">
-        <v>7.7679719266242202</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>61.490000000102803</v>
-      </c>
-      <c r="AU11">
-        <v>521490.00000093598</v>
-      </c>
-      <c r="AV11">
-        <v>125</v>
-      </c>
-      <c r="AW11">
-        <v>5.87125423078</v>
-      </c>
-      <c r="AX11">
-        <v>86.2800000000002</v>
-      </c>
-      <c r="AY11">
-        <v>6477.0140844488096</v>
-      </c>
-      <c r="AZ11">
-        <v>7.8914707403</v>
-      </c>
-      <c r="BA11">
-        <v>1.1365703432710601</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>86.280000000013601</v>
-      </c>
-      <c r="BD11">
-        <v>1301.27999999897</v>
-      </c>
-      <c r="BE11">
-        <v>277.18575567800002</v>
-      </c>
-      <c r="BF11">
-        <v>700.00000000000296</v>
-      </c>
-      <c r="BG11">
-        <v>3578.9438474737499</v>
-      </c>
-      <c r="BH11">
-        <v>700.00000000056002</v>
-      </c>
-      <c r="BI11">
-        <v>22.388103608810599</v>
-      </c>
-      <c r="BJ11">
-        <v>372.561499567</v>
-      </c>
-      <c r="BK11">
-        <v>4841.63754126612</v>
-      </c>
-      <c r="BL11">
-        <v>716.29799999926195</v>
-      </c>
-      <c r="BM11">
-        <v>174.21499999996399</v>
-      </c>
-      <c r="BN11">
-        <v>21.52</v>
-      </c>
-      <c r="BO11">
-        <v>3.3602260021768</v>
-      </c>
-      <c r="BP11">
-        <v>6058.2149561679698</v>
-      </c>
-      <c r="BQ11">
-        <v>24</v>
-      </c>
-      <c r="BR11">
-        <v>14</v>
-      </c>
-      <c r="BS11">
-        <v>9299.1097943897494</v>
-      </c>
-      <c r="BT11">
-        <v>53</v>
-      </c>
-      <c r="BU11">
-        <v>31.04</v>
-      </c>
-      <c r="BV11">
-        <v>7643.9241905511699</v>
-      </c>
-      <c r="BW11">
-        <v>114999.999999937</v>
-      </c>
-      <c r="BX11">
-        <v>136.51999999998301</v>
-      </c>
-      <c r="BY11">
-        <v>115</v>
-      </c>
-      <c r="BZ11">
-        <v>460</v>
-      </c>
-      <c r="CA11">
-        <v>215</v>
-      </c>
-      <c r="CB11">
-        <v>235.90999999946101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>242.000000001008</v>
-      </c>
-      <c r="D12" s="2">
-        <v>202.11999999990101</v>
-      </c>
-      <c r="E12" s="2">
-        <v>163.80999999997101</v>
-      </c>
-      <c r="F12">
-        <v>265</v>
-      </c>
-      <c r="G12">
-        <v>167.11999999990101</v>
-      </c>
-      <c r="H12">
-        <v>38</v>
-      </c>
-      <c r="I12">
-        <v>59.999999999999702</v>
-      </c>
-      <c r="J12">
-        <v>140.572000000092</v>
-      </c>
-      <c r="K12">
-        <v>2219.5899999907701</v>
-      </c>
-      <c r="L12">
-        <v>3149.6285268167398</v>
-      </c>
-      <c r="M12">
-        <v>295.47489062477501</v>
-      </c>
-      <c r="N12">
-        <v>666.48788667577605</v>
-      </c>
-      <c r="O12">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P12">
-        <v>107.48</v>
-      </c>
-      <c r="Q12">
-        <v>1380.04503779685</v>
-      </c>
-      <c r="R12">
-        <v>71.953527200015003</v>
-      </c>
-      <c r="S12">
-        <v>89.804017580220304</v>
-      </c>
-      <c r="T12">
-        <v>20</v>
-      </c>
-      <c r="U12">
-        <v>242.000000001008</v>
-      </c>
-      <c r="V12">
-        <v>45.4280437926</v>
-      </c>
-      <c r="W12">
-        <v>152.12</v>
-      </c>
-      <c r="X12">
-        <v>7500.6244335301799</v>
-      </c>
-      <c r="Y12">
-        <v>1.33660998082307</v>
-      </c>
-      <c r="Z12">
-        <v>152.11999999990101</v>
-      </c>
-      <c r="AA12">
-        <v>167.11999999990101</v>
-      </c>
-      <c r="AB12">
-        <v>59.469587853100002</v>
-      </c>
-      <c r="AC12">
-        <v>167.11999999990101</v>
-      </c>
-      <c r="AD12">
-        <v>107.48</v>
-      </c>
-      <c r="AE12">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF12">
-        <v>167.11999999990101</v>
-      </c>
-      <c r="AG12">
-        <v>4808.4055555630703</v>
-      </c>
-      <c r="AH12">
-        <v>202.11999999990101</v>
-      </c>
-      <c r="AI12">
-        <v>22.406896956099999</v>
-      </c>
-      <c r="AJ12">
-        <v>3396.7388888872201</v>
-      </c>
-      <c r="AK12">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL12">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM12">
-        <v>131.742148760356</v>
-      </c>
-      <c r="AN12">
-        <v>163.80999999997101</v>
-      </c>
-      <c r="AO12">
-        <v>86.529762888099995</v>
-      </c>
-      <c r="AP12">
-        <v>313.69</v>
-      </c>
-      <c r="AQ12">
-        <v>6024.7131837598399</v>
-      </c>
-      <c r="AR12">
-        <v>10.2802274704847</v>
-      </c>
-      <c r="AS12">
-        <v>76.936476368594001</v>
-      </c>
-      <c r="AT12">
-        <v>236.75352363143401</v>
-      </c>
-      <c r="AU12">
-        <v>753689.99999939802</v>
-      </c>
-      <c r="AV12">
-        <v>265</v>
-      </c>
-      <c r="AW12">
-        <v>8.3145370480499992</v>
-      </c>
-      <c r="AX12">
-        <v>118.81</v>
-      </c>
-      <c r="AY12">
-        <v>6499.5469429790001</v>
-      </c>
-      <c r="AZ12">
-        <v>11.5479681223</v>
-      </c>
-      <c r="BA12">
-        <v>2.1116776791613301</v>
-      </c>
-      <c r="BB12">
-        <v>17.390474200578002</v>
-      </c>
-      <c r="BC12">
-        <v>101.419525799372</v>
-      </c>
-      <c r="BD12">
-        <v>2219.5899999907701</v>
-      </c>
-      <c r="BE12">
-        <v>300.03152277499998</v>
-      </c>
-      <c r="BF12">
-        <v>739.99999999999898</v>
-      </c>
-      <c r="BG12">
-        <v>3593.9751607283401</v>
-      </c>
-      <c r="BH12">
-        <v>739.99999999915894</v>
-      </c>
-      <c r="BI12">
-        <v>37.926575752517103</v>
-      </c>
-      <c r="BJ12">
-        <v>416.71044829800002</v>
-      </c>
-      <c r="BK12">
-        <v>4948.4274271001104</v>
-      </c>
-      <c r="BL12">
-        <v>757.03500000048405</v>
-      </c>
-      <c r="BM12">
-        <v>140.572000000092</v>
-      </c>
-      <c r="BN12">
-        <v>28.26</v>
-      </c>
-      <c r="BO12">
-        <v>4.1991710956104402</v>
-      </c>
-      <c r="BP12">
-        <v>6062.5104222112795</v>
-      </c>
-      <c r="BQ12">
-        <v>38</v>
-      </c>
-      <c r="BR12">
-        <v>20</v>
-      </c>
-      <c r="BS12">
-        <v>9311.2823960629794</v>
-      </c>
-      <c r="BT12">
-        <v>59.999999999999702</v>
-      </c>
-      <c r="BU12">
-        <v>42.74</v>
-      </c>
-      <c r="BV12">
-        <v>7651.0908844488104</v>
-      </c>
-      <c r="BW12">
-        <v>120000</v>
-      </c>
-      <c r="BX12">
-        <v>148.259999999988</v>
-      </c>
-      <c r="BY12">
-        <v>120</v>
-      </c>
-      <c r="BZ12">
-        <v>440</v>
-      </c>
-      <c r="CA12">
-        <v>145</v>
-      </c>
-      <c r="CB12">
-        <v>286.12000000044702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44408</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>98.499999999929898</v>
-      </c>
-      <c r="D13" s="2">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="E13" s="2">
-        <v>168.34999999995199</v>
-      </c>
-      <c r="F13">
-        <v>165</v>
-      </c>
-      <c r="G13">
-        <v>82.229999999974396</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>27</v>
-      </c>
-      <c r="J13">
-        <v>53.3719999999769</v>
-      </c>
-      <c r="K13">
-        <v>726.70399999907602</v>
-      </c>
-      <c r="L13">
-        <v>3235.9503360633998</v>
-      </c>
-      <c r="M13">
-        <v>319.46294116942698</v>
-      </c>
-      <c r="N13">
-        <v>686.29645120201201</v>
-      </c>
-      <c r="O13">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P13">
-        <v>107.48</v>
-      </c>
-      <c r="Q13">
-        <v>1341.0356651208299</v>
-      </c>
-      <c r="R13">
-        <v>63.453527200058701</v>
-      </c>
-      <c r="S13">
-        <v>74.730013978457805</v>
-      </c>
-      <c r="T13">
-        <v>23.5</v>
-      </c>
-      <c r="U13">
-        <v>98.499999999929898</v>
-      </c>
-      <c r="V13">
-        <v>23.4737959522</v>
-      </c>
-      <c r="W13">
-        <v>77.23</v>
-      </c>
-      <c r="X13">
-        <v>7503.0100903543198</v>
-      </c>
-      <c r="Y13">
-        <v>1.4614354734919699</v>
-      </c>
-      <c r="Z13">
-        <v>77.229999999939395</v>
-      </c>
-      <c r="AA13">
-        <v>82.229999999974396</v>
-      </c>
-      <c r="AB13">
-        <v>29.261513937</v>
-      </c>
-      <c r="AC13">
-        <v>82.229999999974396</v>
-      </c>
-      <c r="AD13">
-        <v>107.48</v>
-      </c>
-      <c r="AE13">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF13">
-        <v>82.229999999974396</v>
-      </c>
-      <c r="AG13">
-        <v>1142.1814516111201</v>
-      </c>
-      <c r="AH13">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="AI13">
-        <v>15.6866130218</v>
-      </c>
-      <c r="AJ13">
-        <v>1499.9771505383601</v>
-      </c>
-      <c r="AK13">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL13">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM13">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="AN13">
-        <v>168.34999999995199</v>
-      </c>
-      <c r="AO13">
-        <v>23.8330069095</v>
-      </c>
-      <c r="AP13">
-        <v>65.360000000000198</v>
-      </c>
-      <c r="AQ13">
-        <v>6027.0322292978899</v>
-      </c>
-      <c r="AR13">
-        <v>13.2153179358606</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>65.360000000101607</v>
-      </c>
-      <c r="AU13">
-        <v>135359.99999993999</v>
-      </c>
-      <c r="AV13">
-        <v>165</v>
-      </c>
-      <c r="AW13">
-        <v>9.5065704903700006</v>
-      </c>
-      <c r="AX13">
-        <v>138.35</v>
-      </c>
-      <c r="AY13">
-        <v>6502.6842639763699</v>
-      </c>
-      <c r="AZ13">
-        <v>12.7776485086</v>
-      </c>
-      <c r="BA13">
-        <v>2.6619494548443301</v>
-      </c>
-      <c r="BB13">
-        <v>36.011538778368703</v>
-      </c>
-      <c r="BC13">
-        <v>102.338461221591</v>
-      </c>
-      <c r="BD13">
-        <v>726.70399999907602</v>
-      </c>
-      <c r="BE13">
-        <v>357.77978103499998</v>
-      </c>
-      <c r="BF13">
-        <v>869.99999999999898</v>
-      </c>
-      <c r="BG13">
-        <v>3592.05206699475</v>
-      </c>
-      <c r="BH13">
-        <v>869.99999999957902</v>
-      </c>
-      <c r="BI13">
-        <v>47.762168534751801</v>
-      </c>
-      <c r="BJ13">
-        <v>480.88680246600001</v>
-      </c>
-      <c r="BK13">
-        <v>4934.2749744181101</v>
-      </c>
-      <c r="BL13">
-        <v>894.20600000031402</v>
-      </c>
-      <c r="BM13">
-        <v>53.3719999999769</v>
-      </c>
-      <c r="BN13">
-        <v>30.74</v>
-      </c>
-      <c r="BO13">
-        <v>4.4353726759509202</v>
-      </c>
-      <c r="BP13">
-        <v>6059.4662504593098</v>
-      </c>
-      <c r="BQ13">
-        <v>15</v>
-      </c>
-      <c r="BR13">
-        <v>23.5</v>
-      </c>
-      <c r="BS13">
-        <v>9305.8200699803092</v>
-      </c>
-      <c r="BT13">
-        <v>27</v>
-      </c>
-      <c r="BU13">
-        <v>41.54</v>
-      </c>
-      <c r="BV13">
-        <v>7644.6701017060304</v>
-      </c>
-      <c r="BW13">
-        <v>50999.999999922897</v>
-      </c>
-      <c r="BX13">
-        <v>81.740000000081693</v>
-      </c>
-      <c r="BY13">
-        <v>51</v>
-      </c>
-      <c r="BZ13">
-        <v>70</v>
-      </c>
-      <c r="CA13">
-        <v>43</v>
-      </c>
-      <c r="CB13">
-        <v>70.229999999890396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2">
-        <v>60.999999999993001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="E14" s="2">
-        <v>76.640000000024301</v>
-      </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>85.2299999999954</v>
-      </c>
-      <c r="H14">
-        <v>8.0000000000000302</v>
-      </c>
-      <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14">
-        <v>53.897000000094501</v>
-      </c>
-      <c r="K14">
-        <v>477.09700000071302</v>
-      </c>
-      <c r="L14">
-        <v>3214.9336397887801</v>
-      </c>
-      <c r="M14">
-        <v>310.58729269634699</v>
-      </c>
-      <c r="N14">
-        <v>663.95471476364401</v>
-      </c>
-      <c r="O14">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P14">
-        <v>107.48</v>
-      </c>
-      <c r="Q14">
-        <v>1314.51360196257</v>
-      </c>
-      <c r="R14">
-        <v>52.453527199996103</v>
-      </c>
-      <c r="S14">
-        <v>53.529181175605501</v>
-      </c>
-      <c r="T14">
-        <v>19</v>
-      </c>
-      <c r="U14">
-        <v>60.999999999993001</v>
-      </c>
-      <c r="V14">
-        <v>24.983600160999998</v>
-      </c>
-      <c r="W14">
-        <v>82.230000000000302</v>
-      </c>
-      <c r="X14">
-        <v>7500.3170399934297</v>
-      </c>
-      <c r="Y14">
-        <v>1.11173643877603</v>
-      </c>
-      <c r="Z14">
-        <v>82.229999999974396</v>
-      </c>
-      <c r="AA14">
-        <v>85.2299999999954</v>
-      </c>
-      <c r="AB14">
-        <v>30.3357508474</v>
-      </c>
-      <c r="AC14">
-        <v>85.2299999999954</v>
-      </c>
-      <c r="AD14">
-        <v>107.48</v>
-      </c>
-      <c r="AE14">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF14">
-        <v>85.2299999999954</v>
-      </c>
-      <c r="AG14">
-        <v>1012.07392473202</v>
-      </c>
-      <c r="AH14">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="AI14">
-        <v>15.6866130218</v>
-      </c>
-      <c r="AJ14">
-        <v>1499.9771505383601</v>
-      </c>
-      <c r="AK14">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL14">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM14">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="AN14">
-        <v>76.640000000024301</v>
-      </c>
-      <c r="AO14">
-        <v>31.4376347613</v>
-      </c>
-      <c r="AP14">
-        <v>86.079999999999799</v>
-      </c>
-      <c r="AQ14">
-        <v>6026.4720117782099</v>
-      </c>
-      <c r="AR14">
-        <v>12.4173642354178</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>86.079999999968805</v>
-      </c>
-      <c r="AU14">
-        <v>107079.999999899</v>
-      </c>
-      <c r="AV14">
-        <v>60</v>
-      </c>
-      <c r="AW14">
-        <v>6.2518910788199999</v>
-      </c>
-      <c r="AX14">
-        <v>66.639999999999901</v>
-      </c>
-      <c r="AY14">
-        <v>6501.5331804461903</v>
-      </c>
-      <c r="AZ14">
-        <v>8.4030794070199999</v>
-      </c>
-      <c r="BA14">
-        <v>2.23564847326239</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>66.639999999954298</v>
-      </c>
-      <c r="BD14">
-        <v>477.09700000071302</v>
-      </c>
-      <c r="BE14">
-        <v>363.30211084199999</v>
-      </c>
-      <c r="BF14">
-        <v>889.99999999999898</v>
-      </c>
-      <c r="BG14">
-        <v>3587.3432566601</v>
-      </c>
-      <c r="BH14">
-        <v>889.99999999971897</v>
-      </c>
-      <c r="BI14">
-        <v>46.718342722804699</v>
-      </c>
-      <c r="BJ14">
-        <v>488.30928876600001</v>
-      </c>
-      <c r="BK14">
-        <v>4900.2289481924699</v>
-      </c>
-      <c r="BL14">
-        <v>910.310000000797</v>
-      </c>
-      <c r="BM14">
-        <v>53.897000000094501</v>
-      </c>
-      <c r="BN14">
-        <v>28.76</v>
-      </c>
-      <c r="BO14">
-        <v>3.5450631599928499</v>
-      </c>
-      <c r="BP14">
-        <v>6057.35261568241</v>
-      </c>
-      <c r="BQ14">
-        <v>8.0000000000000302</v>
-      </c>
-      <c r="BR14">
-        <v>19</v>
-      </c>
-      <c r="BS14">
-        <v>9297.9763118110095</v>
-      </c>
-      <c r="BT14">
-        <v>17</v>
-      </c>
-      <c r="BU14">
-        <v>37.81</v>
-      </c>
-      <c r="BV14">
-        <v>7634.6163862860803</v>
-      </c>
-      <c r="BW14">
-        <v>29999.999999993001</v>
-      </c>
-      <c r="BX14">
-        <v>58.7599999999251</v>
-      </c>
-      <c r="BY14">
-        <v>30</v>
-      </c>
-      <c r="BZ14">
-        <v>21</v>
-      </c>
-      <c r="CA14">
-        <v>35</v>
-      </c>
-      <c r="CB14">
-        <v>62.230000000051497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44.4999999999579</v>
-      </c>
-      <c r="D15" s="2">
-        <v>86.280000000090695</v>
-      </c>
-      <c r="E15" s="2">
-        <v>67.499999999999901</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>81.280000000090695</v>
-      </c>
-      <c r="H15">
-        <v>5.9999999999999698</v>
-      </c>
-      <c r="I15">
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <v>46.389000000084401</v>
-      </c>
-      <c r="K15">
-        <v>424.54899999934901</v>
-      </c>
-      <c r="L15">
-        <v>3184.9372699974201</v>
-      </c>
-      <c r="M15">
-        <v>294.27506792941801</v>
-      </c>
-      <c r="N15">
-        <v>628.22260616313804</v>
-      </c>
-      <c r="O15">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P15">
-        <v>107.48</v>
-      </c>
-      <c r="Q15">
-        <v>1307.9250787896999</v>
-      </c>
-      <c r="R15">
-        <v>40.953527199993196</v>
-      </c>
-      <c r="S15">
-        <v>38.6534730911781</v>
-      </c>
-      <c r="T15">
-        <v>17.5</v>
-      </c>
-      <c r="U15">
-        <v>44.4999999999579</v>
-      </c>
-      <c r="V15">
-        <v>23.8659457923</v>
-      </c>
-      <c r="W15">
-        <v>79.2800000000002</v>
-      </c>
-      <c r="X15">
-        <v>7495.9260060039296</v>
-      </c>
-      <c r="Y15">
-        <v>0.95210860057333802</v>
-      </c>
-      <c r="Z15">
-        <v>79.279999999922595</v>
-      </c>
-      <c r="AA15">
-        <v>81.280000000090695</v>
-      </c>
-      <c r="AB15">
-        <v>28.935256110600001</v>
-      </c>
-      <c r="AC15">
-        <v>81.280000000090695</v>
-      </c>
-      <c r="AD15">
-        <v>107.48</v>
-      </c>
-      <c r="AE15">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF15">
-        <v>81.280000000090695</v>
-      </c>
-      <c r="AG15">
-        <v>1433.17777777789</v>
-      </c>
-      <c r="AH15">
-        <v>86.280000000090695</v>
-      </c>
-      <c r="AI15">
-        <v>8.97996731922</v>
-      </c>
-      <c r="AJ15">
-        <v>1449.9833333348599</v>
-      </c>
-      <c r="AK15">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL15">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM15">
-        <v>51.906187588974298</v>
-      </c>
-      <c r="AN15">
-        <v>67.499999999999901</v>
-      </c>
-      <c r="AO15">
-        <v>32.0155582903</v>
-      </c>
-      <c r="AP15">
-        <v>87.769999999999797</v>
-      </c>
-      <c r="AQ15">
-        <v>6025.6674358595701</v>
-      </c>
-      <c r="AR15">
-        <v>10.926224729580399</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>87.769999999976406</v>
-      </c>
-      <c r="AU15">
-        <v>102769.999999976</v>
-      </c>
-      <c r="AV15">
-        <v>45</v>
-      </c>
-      <c r="AW15">
-        <v>1.83998138523</v>
-      </c>
-      <c r="AX15">
-        <v>59.5</v>
-      </c>
-      <c r="AY15">
-        <v>6499.3857166994703</v>
-      </c>
-      <c r="AZ15">
-        <v>2.5555297017099998</v>
-      </c>
-      <c r="BA15">
-        <v>1.8122247671635301</v>
-      </c>
-      <c r="BB15">
-        <v>39.7129794815366</v>
-      </c>
-      <c r="BC15">
-        <v>19.787020518400301</v>
-      </c>
-      <c r="BD15">
-        <v>424.54899999934901</v>
-      </c>
-      <c r="BE15">
-        <v>279.67740704900001</v>
-      </c>
-      <c r="BF15">
-        <v>689.99999999999704</v>
-      </c>
-      <c r="BG15">
-        <v>3584.1239183398902</v>
-      </c>
-      <c r="BH15">
-        <v>689.99999999915894</v>
-      </c>
-      <c r="BI15">
-        <v>42.093525667417602</v>
-      </c>
-      <c r="BJ15">
-        <v>388.44084312299998</v>
-      </c>
-      <c r="BK15">
-        <v>4877.4478790071498</v>
-      </c>
-      <c r="BL15">
-        <v>703.83699999988403</v>
-      </c>
-      <c r="BM15">
-        <v>46.389000000084401</v>
-      </c>
-      <c r="BN15">
-        <v>24.2</v>
-      </c>
-      <c r="BO15">
-        <v>2.7095231704141298</v>
-      </c>
-      <c r="BP15">
-        <v>6056.82225980971</v>
-      </c>
-      <c r="BQ15">
-        <v>5.9999999999999698</v>
-      </c>
-      <c r="BR15">
-        <v>17.5</v>
-      </c>
-      <c r="BS15">
-        <v>9288.2912830380501</v>
-      </c>
-      <c r="BT15">
-        <v>15</v>
-      </c>
-      <c r="BU15">
-        <v>29.62</v>
-      </c>
-      <c r="BV15">
-        <v>7626.2867039370003</v>
-      </c>
-      <c r="BW15">
-        <v>25000</v>
-      </c>
-      <c r="BX15">
-        <v>49.2000000001008</v>
-      </c>
-      <c r="BY15">
-        <v>25</v>
-      </c>
-      <c r="BZ15">
-        <v>15</v>
-      </c>
-      <c r="CA15">
-        <v>54</v>
-      </c>
-      <c r="CB15">
-        <v>85.280000000006694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40.539999999966902</v>
-      </c>
-      <c r="D16" s="2">
-        <v>83.700000000086803</v>
-      </c>
-      <c r="E16" s="2">
-        <v>71.010000000065205</v>
-      </c>
-      <c r="F16">
-        <v>48.02</v>
-      </c>
-      <c r="G16">
-        <v>78.339999999971099</v>
-      </c>
-      <c r="H16">
-        <v>5.83</v>
-      </c>
-      <c r="I16">
-        <v>14.17</v>
-      </c>
-      <c r="J16">
-        <v>42.067000000048601</v>
-      </c>
-      <c r="K16">
-        <v>484.94700000030201</v>
-      </c>
-      <c r="L16">
-        <v>3182.0890959399999</v>
-      </c>
-      <c r="M16">
-        <v>279.62690726746303</v>
-      </c>
-      <c r="N16">
-        <v>592.01647722021403</v>
-      </c>
-      <c r="O16">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P16">
-        <v>107.48</v>
-      </c>
-      <c r="Q16">
-        <v>1317.59825696451</v>
-      </c>
-      <c r="R16">
-        <v>35.283527199988697</v>
-      </c>
-      <c r="S16">
-        <v>35.4806338435558</v>
-      </c>
-      <c r="T16">
-        <v>11.5</v>
-      </c>
-      <c r="U16">
-        <v>40.539999999966902</v>
-      </c>
-      <c r="V16">
-        <v>22.676990545500001</v>
-      </c>
-      <c r="W16">
-        <v>76.229999999999706</v>
-      </c>
-      <c r="X16">
-        <v>7491.3662383202</v>
-      </c>
-      <c r="Y16">
-        <v>0.51612894254348796</v>
-      </c>
-      <c r="Z16">
-        <v>76.229999999932403</v>
-      </c>
-      <c r="AA16">
-        <v>78.339999999971099</v>
-      </c>
-      <c r="AB16">
-        <v>27.88983078</v>
-      </c>
-      <c r="AC16">
-        <v>78.339999999971099</v>
-      </c>
-      <c r="AD16">
-        <v>107.48</v>
-      </c>
-      <c r="AE16">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF16">
-        <v>78.339999999971099</v>
-      </c>
-      <c r="AG16">
-        <v>1972.5927419361999</v>
-      </c>
-      <c r="AH16">
-        <v>83.700000000086803</v>
-      </c>
-      <c r="AI16">
-        <v>14.2501642829</v>
-      </c>
-      <c r="AJ16">
-        <v>1361.2500000014099</v>
-      </c>
-      <c r="AK16">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL16">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM16">
-        <v>83.700000000086803</v>
-      </c>
-      <c r="AN16">
-        <v>71.010000000065205</v>
-      </c>
-      <c r="AO16">
-        <v>24.386193041199999</v>
-      </c>
-      <c r="AP16">
-        <v>66.840000000000302</v>
-      </c>
-      <c r="AQ16">
-        <v>6025.5908432086499</v>
-      </c>
-      <c r="AR16">
-        <v>7.1321006955573196</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>66.839999999999094</v>
-      </c>
-      <c r="AU16">
-        <v>94719.999999951193</v>
-      </c>
-      <c r="AV16">
-        <v>48.02</v>
-      </c>
-      <c r="AW16">
-        <v>5.5643366564200001</v>
-      </c>
-      <c r="AX16">
-        <v>61.489999999999696</v>
-      </c>
-      <c r="AY16">
-        <v>6497.3964406167897</v>
-      </c>
-      <c r="AZ16">
-        <v>7.4789471188499999</v>
-      </c>
-      <c r="BA16">
-        <v>1.1781606616108899</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>61.490000000102803</v>
-      </c>
-      <c r="BD16">
-        <v>484.94700000030201</v>
-      </c>
-      <c r="BE16">
-        <v>258.54251341600002</v>
-      </c>
-      <c r="BF16">
-        <v>639.99999999999704</v>
-      </c>
-      <c r="BG16">
-        <v>3582.1727794947501</v>
-      </c>
-      <c r="BH16">
-        <v>640.00000000013995</v>
-      </c>
-      <c r="BI16">
-        <v>28.688750502041099</v>
-      </c>
-      <c r="BJ16">
-        <v>347.50337824799999</v>
-      </c>
-      <c r="BK16">
-        <v>4863.8373828742097</v>
-      </c>
-      <c r="BL16">
-        <v>648.81100000003005</v>
-      </c>
-      <c r="BM16">
-        <v>42.067000000048601</v>
-      </c>
-      <c r="BN16">
-        <v>21.46</v>
-      </c>
-      <c r="BO16">
-        <v>1.70982182550276</v>
-      </c>
-      <c r="BP16">
-        <v>6057.60022047243</v>
-      </c>
-      <c r="BQ16">
-        <v>5.83</v>
-      </c>
-      <c r="BR16">
-        <v>11.5</v>
-      </c>
-      <c r="BS16">
-        <v>9282.6695067913297</v>
-      </c>
-      <c r="BT16">
-        <v>14.17</v>
-      </c>
-      <c r="BU16">
-        <v>17.2</v>
-      </c>
-      <c r="BV16">
-        <v>7624.277860958</v>
-      </c>
-      <c r="BW16">
-        <v>23829.999999912801</v>
-      </c>
-      <c r="BX16">
-        <v>45.289999999945898</v>
-      </c>
-      <c r="BY16">
-        <v>23.83</v>
-      </c>
-      <c r="BZ16">
-        <v>27.88</v>
-      </c>
-      <c r="CA16">
-        <v>67.590000000000202</v>
-      </c>
-      <c r="CB16">
-        <v>121.290000000044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30.0100000000302</v>
-      </c>
-      <c r="D17" s="2">
-        <v>26.779999999922602</v>
-      </c>
-      <c r="E17" s="2">
-        <v>78.570000000085699</v>
-      </c>
-      <c r="F17">
-        <v>41.83</v>
-      </c>
-      <c r="G17">
-        <v>22.289999999994901</v>
-      </c>
-      <c r="H17">
-        <v>4.79</v>
-      </c>
-      <c r="I17">
-        <v>8.3699999999999903</v>
-      </c>
-      <c r="J17">
-        <v>24.673000000019101</v>
-      </c>
-      <c r="K17">
-        <v>431.79900000027402</v>
-      </c>
-      <c r="L17">
-        <v>3196.02681783154</v>
-      </c>
-      <c r="M17">
-        <v>250.824073632199</v>
-      </c>
-      <c r="N17">
-        <v>601.50047758560197</v>
-      </c>
-      <c r="O17">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P17">
-        <v>107.48</v>
-      </c>
-      <c r="Q17">
-        <v>1320.5591987545099</v>
-      </c>
-      <c r="R17">
-        <v>35.023527200039297</v>
-      </c>
-      <c r="S17">
-        <v>41.295011186281599</v>
-      </c>
-      <c r="T17">
-        <v>5.05</v>
-      </c>
-      <c r="U17">
-        <v>30.0100000000302</v>
-      </c>
-      <c r="V17">
-        <v>6.0087290430299998</v>
-      </c>
-      <c r="W17">
-        <v>20.29</v>
-      </c>
-      <c r="X17">
-        <v>7492.5718868110198</v>
-      </c>
-      <c r="Y17">
-        <v>0.235999634694082</v>
-      </c>
-      <c r="Z17">
-        <v>20.289999999994901</v>
-      </c>
-      <c r="AA17">
-        <v>22.289999999994901</v>
-      </c>
-      <c r="AB17">
-        <v>7.9463615710499997</v>
-      </c>
-      <c r="AC17">
-        <v>22.289999999994901</v>
-      </c>
-      <c r="AD17">
-        <v>107.48</v>
-      </c>
-      <c r="AE17">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF17">
-        <v>22.289999999994901</v>
-      </c>
-      <c r="AG17">
-        <v>1292.34722222349</v>
-      </c>
-      <c r="AH17">
-        <v>26.779999999922602</v>
-      </c>
-      <c r="AI17">
-        <v>4.5547814889099998</v>
-      </c>
-      <c r="AJ17">
-        <v>450.05277777647802</v>
-      </c>
-      <c r="AK17">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL17">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM17">
-        <v>26.779999999922602</v>
-      </c>
-      <c r="AN17">
-        <v>78.570000000085699</v>
-      </c>
-      <c r="AO17">
-        <v>22.126498460299999</v>
-      </c>
-      <c r="AP17">
-        <v>60.690000000000097</v>
-      </c>
-      <c r="AQ17">
-        <v>6025.96565423228</v>
-      </c>
-      <c r="AR17">
-        <v>3.38476917171401</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>60.689999999986497</v>
-      </c>
-      <c r="AU17">
-        <v>90150.0000000336</v>
-      </c>
-      <c r="AV17">
-        <v>41.83</v>
-      </c>
-      <c r="AW17">
-        <v>6.1404164679299997</v>
-      </c>
-      <c r="AX17">
-        <v>69.9200000000003</v>
-      </c>
-      <c r="AY17">
-        <v>6493.35577358923</v>
-      </c>
-      <c r="AZ17">
-        <v>8.5283562054599997</v>
-      </c>
-      <c r="BA17">
-        <v>0.71283363540577904</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>69.919999999967999</v>
-      </c>
-      <c r="BD17">
-        <v>431.79900000027402</v>
-      </c>
-      <c r="BE17">
-        <v>257.00341565299999</v>
-      </c>
-      <c r="BF17">
-        <v>640.00000000000205</v>
-      </c>
-      <c r="BG17">
-        <v>3579.63891820866</v>
-      </c>
-      <c r="BH17">
-        <v>639.99999999915894</v>
-      </c>
-      <c r="BI17">
-        <v>27.439283168201499</v>
-      </c>
-      <c r="BJ17">
-        <v>356.94918840600002</v>
-      </c>
-      <c r="BK17">
-        <v>4846.3825520655</v>
-      </c>
-      <c r="BL17">
-        <v>641.72000000058097</v>
-      </c>
-      <c r="BM17">
-        <v>24.673000000019101</v>
-      </c>
-      <c r="BN17">
-        <v>20.77</v>
-      </c>
-      <c r="BO17">
-        <v>0.89005821428457299</v>
-      </c>
-      <c r="BP17">
-        <v>6057.8373568569496</v>
-      </c>
-      <c r="BQ17">
-        <v>4.79</v>
-      </c>
-      <c r="BR17">
-        <v>5.05</v>
-      </c>
-      <c r="BS17">
-        <v>9282.3941623359497</v>
-      </c>
-      <c r="BT17">
-        <v>8.3699999999999903</v>
-      </c>
-      <c r="BU17">
-        <v>2.48</v>
-      </c>
-      <c r="BV17">
-        <v>7627.8792057414603</v>
-      </c>
-      <c r="BW17">
-        <v>16750</v>
-      </c>
-      <c r="BX17">
-        <v>37.520000000060499</v>
-      </c>
-      <c r="BY17">
-        <v>16.75</v>
-      </c>
-      <c r="BZ17">
-        <v>29.46</v>
-      </c>
-      <c r="CA17">
-        <v>50.12</v>
-      </c>
-      <c r="CB17">
-        <v>76.900000000075593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>26.1600000000008</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="E18" s="2">
-        <v>75.109999999898506</v>
-      </c>
-      <c r="F18">
-        <v>31.99</v>
-      </c>
-      <c r="G18">
-        <v>38.349999999910303</v>
-      </c>
-      <c r="H18">
-        <v>4.68</v>
-      </c>
-      <c r="I18">
-        <v>6.3400000000000301</v>
-      </c>
-      <c r="J18">
-        <v>19.679000000003001</v>
-      </c>
-      <c r="K18">
-        <v>420.12099999958099</v>
-      </c>
-      <c r="L18">
-        <v>3185.3040912721399</v>
-      </c>
-      <c r="M18">
-        <v>209.888854238623</v>
-      </c>
-      <c r="N18">
-        <v>591.22959535097698</v>
-      </c>
-      <c r="O18">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P18">
-        <v>107.48</v>
-      </c>
-      <c r="Q18">
-        <v>1318.1489356120001</v>
-      </c>
-      <c r="R18">
-        <v>34.503527200059303</v>
-      </c>
-      <c r="S18">
-        <v>45.7372486555373</v>
-      </c>
-      <c r="T18">
-        <v>5.2</v>
-      </c>
-      <c r="U18">
-        <v>26.1600000000008</v>
-      </c>
-      <c r="V18">
-        <v>10.7337073367</v>
-      </c>
-      <c r="W18">
-        <v>36.25</v>
-      </c>
-      <c r="X18">
-        <v>7491.2658066929098</v>
-      </c>
-      <c r="Y18">
-        <v>0.18088223468179301</v>
-      </c>
-      <c r="Z18">
-        <v>36.250000000090999</v>
-      </c>
-      <c r="AA18">
-        <v>38.349999999910303</v>
-      </c>
-      <c r="AB18">
-        <v>13.6468327798</v>
-      </c>
-      <c r="AC18">
-        <v>38.349999999910303</v>
-      </c>
-      <c r="AD18">
-        <v>107.48</v>
-      </c>
-      <c r="AE18">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF18">
-        <v>38.349999999910303</v>
-      </c>
-      <c r="AG18">
-        <v>1399.6317204295301</v>
-      </c>
-      <c r="AH18">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="AI18">
-        <v>7.3203060225099996</v>
-      </c>
-      <c r="AJ18">
-        <v>699.97849462516899</v>
-      </c>
-      <c r="AK18">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL18">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM18">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="AN18">
-        <v>75.109999999898506</v>
-      </c>
-      <c r="AO18">
-        <v>30.829263212800001</v>
-      </c>
-      <c r="AP18">
-        <v>84.549999999999699</v>
-      </c>
-      <c r="AQ18">
-        <v>6025.6773003608896</v>
-      </c>
-      <c r="AR18">
-        <v>1.7116344555974601</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>84.550000000060194</v>
-      </c>
-      <c r="AU18">
-        <v>109820.000000079</v>
-      </c>
-      <c r="AV18">
-        <v>31.99</v>
-      </c>
-      <c r="AW18">
-        <v>6.0446250801800003</v>
-      </c>
-      <c r="AX18">
-        <v>72.250000000000099</v>
-      </c>
-      <c r="AY18">
-        <v>6487.2002375984202</v>
-      </c>
-      <c r="AZ18">
-        <v>8.1244960755100006</v>
-      </c>
-      <c r="BA18">
-        <v>0.67521939397823805</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>72.249999999908894</v>
-      </c>
-      <c r="BD18">
-        <v>420.12099999958099</v>
-      </c>
-      <c r="BE18">
-        <v>286.42701912000001</v>
-      </c>
-      <c r="BF18">
-        <v>720.00000000000296</v>
-      </c>
-      <c r="BG18">
-        <v>3576.1229492125899</v>
-      </c>
-      <c r="BH18">
-        <v>720.00000000069997</v>
-      </c>
-      <c r="BI18">
-        <v>21.5239825675805</v>
-      </c>
-      <c r="BJ18">
-        <v>384.98255258099999</v>
-      </c>
-      <c r="BK18">
-        <v>4822.5749304239998</v>
-      </c>
-      <c r="BL18">
-        <v>724.91699999936998</v>
-      </c>
-      <c r="BM18">
-        <v>19.679000000003001</v>
-      </c>
-      <c r="BN18">
-        <v>21.46</v>
-      </c>
-      <c r="BO18">
-        <v>0.62926314233313296</v>
-      </c>
-      <c r="BP18">
-        <v>6057.6443233267701</v>
-      </c>
-      <c r="BQ18">
-        <v>4.68</v>
-      </c>
-      <c r="BR18">
-        <v>5.2</v>
-      </c>
-      <c r="BS18">
-        <v>9281.8375900590509</v>
-      </c>
-      <c r="BT18">
-        <v>6.3400000000000301</v>
-      </c>
-      <c r="BU18">
-        <v>1.84</v>
-      </c>
-      <c r="BV18">
-        <v>7630.4316097440897</v>
-      </c>
-      <c r="BW18">
-        <v>15250.0000000091</v>
-      </c>
-      <c r="BX18">
-        <v>36.709999999977001</v>
-      </c>
-      <c r="BY18">
-        <v>15.25</v>
-      </c>
-      <c r="BZ18">
-        <v>25.27</v>
-      </c>
-      <c r="CA18">
-        <v>43.02</v>
-      </c>
-      <c r="CB18">
-        <v>86.059999999964305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44592</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2">
-        <v>25.159999999993801</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="E19" s="2">
-        <v>82.279999999985606</v>
-      </c>
-      <c r="F19">
-        <v>30.31</v>
-      </c>
-      <c r="G19">
-        <v>38.2999999998991</v>
-      </c>
-      <c r="H19">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="I19">
-        <v>5.39</v>
-      </c>
-      <c r="J19">
-        <v>18.369999999991901</v>
-      </c>
-      <c r="K19">
-        <v>416.71999999960099</v>
-      </c>
-      <c r="L19">
-        <v>3181.4784341393402</v>
-      </c>
-      <c r="M19">
-        <v>167.35599673395799</v>
-      </c>
-      <c r="N19">
-        <v>580.11010407717697</v>
-      </c>
-      <c r="O19">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P19">
-        <v>107.48</v>
-      </c>
-      <c r="Q19">
-        <v>1314.43334079699</v>
-      </c>
-      <c r="R19">
-        <v>33.653527199990698</v>
-      </c>
-      <c r="S19">
-        <v>49.2270212597765</v>
-      </c>
-      <c r="T19">
-        <v>5.2</v>
-      </c>
-      <c r="U19">
-        <v>25.159999999993801</v>
-      </c>
-      <c r="V19">
-        <v>10.6498593786</v>
-      </c>
-      <c r="W19">
-        <v>36.1</v>
-      </c>
-      <c r="X19">
-        <v>7489.8410229002502</v>
-      </c>
-      <c r="Y19">
-        <v>0.179491273595239</v>
-      </c>
-      <c r="Z19">
-        <v>36.100000000057399</v>
-      </c>
-      <c r="AA19">
-        <v>38.2999999998991</v>
-      </c>
-      <c r="AB19">
-        <v>13.6302124655</v>
-      </c>
-      <c r="AC19">
-        <v>38.2999999998991</v>
-      </c>
-      <c r="AD19">
-        <v>107.48</v>
-      </c>
-      <c r="AE19">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF19">
-        <v>38.2999999998991</v>
-      </c>
-      <c r="AG19">
-        <v>1290.3413978491101</v>
-      </c>
-      <c r="AH19">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="AI19">
-        <v>7.3203060225099996</v>
-      </c>
-      <c r="AJ19">
-        <v>699.97849462516899</v>
-      </c>
-      <c r="AK19">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL19">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM19">
-        <v>43.040000000093002</v>
-      </c>
-      <c r="AN19">
-        <v>82.279999999985606</v>
-      </c>
-      <c r="AO19">
-        <v>30.817270133899999</v>
-      </c>
-      <c r="AP19">
-        <v>84.549999999999699</v>
-      </c>
-      <c r="AQ19">
-        <v>6025.5744213910702</v>
-      </c>
-      <c r="AR19">
-        <v>1.7086829969872199</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>84.550000000060194</v>
-      </c>
-      <c r="AU19">
-        <v>109620.00000003399</v>
-      </c>
-      <c r="AV19">
-        <v>30.31</v>
-      </c>
-      <c r="AW19">
-        <v>5.6350129794099999</v>
-      </c>
-      <c r="AX19">
-        <v>72.250000000000099</v>
-      </c>
-      <c r="AY19">
-        <v>6480.1115707348999</v>
-      </c>
-      <c r="AZ19">
-        <v>7.5739421766200001</v>
-      </c>
-      <c r="BA19">
-        <v>0.59285750430016104</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
-        <v>72.249999999908894</v>
-      </c>
-      <c r="BD19">
-        <v>416.71999999960099</v>
-      </c>
-      <c r="BE19">
-        <v>337.84564007099999</v>
-      </c>
-      <c r="BF19">
-        <v>860.00000000000296</v>
-      </c>
-      <c r="BG19">
-        <v>3571.08091748687</v>
-      </c>
-      <c r="BH19">
-        <v>859.99999999950899</v>
-      </c>
-      <c r="BI19">
-        <v>6.3406597823121098</v>
-      </c>
-      <c r="BJ19">
-        <v>454.09360224599999</v>
-      </c>
-      <c r="BK19">
-        <v>4789.26969564917</v>
-      </c>
-      <c r="BL19">
-        <v>870.90200000038897</v>
-      </c>
-      <c r="BM19">
-        <v>18.369999999991901</v>
-      </c>
-      <c r="BN19">
-        <v>21.46</v>
-      </c>
-      <c r="BO19">
-        <v>0.62559481511803905</v>
-      </c>
-      <c r="BP19">
-        <v>6057.3461631889704</v>
-      </c>
-      <c r="BQ19">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="BR19">
-        <v>5.2</v>
-      </c>
-      <c r="BS19">
-        <v>9280.9121362204605</v>
-      </c>
-      <c r="BT19">
-        <v>5.39</v>
-      </c>
-      <c r="BU19">
-        <v>1.84</v>
-      </c>
-      <c r="BV19">
-        <v>7632.35028116797</v>
-      </c>
-      <c r="BW19">
-        <v>13580.0000000039</v>
-      </c>
-      <c r="BX19">
-        <v>35.040000000036997</v>
-      </c>
-      <c r="BY19">
-        <v>13.58</v>
-      </c>
-      <c r="BZ19">
-        <v>25.07</v>
-      </c>
-      <c r="CA19">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="CB19">
-        <v>79.339999999978104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2">
-        <v>23.2899999999809</v>
-      </c>
-      <c r="D20" s="2">
-        <v>38.880000000001097</v>
-      </c>
-      <c r="E20" s="2">
-        <v>82.140000000087397</v>
-      </c>
-      <c r="F20">
-        <v>27.66</v>
-      </c>
-      <c r="G20">
-        <v>34.939999999958502</v>
-      </c>
-      <c r="H20">
-        <v>3.8</v>
-      </c>
-      <c r="I20">
-        <v>4.74</v>
-      </c>
-      <c r="J20">
-        <v>26.850000000022401</v>
-      </c>
-      <c r="K20">
-        <v>424.46599999998102</v>
-      </c>
-      <c r="L20">
-        <v>3185.0003530341</v>
-      </c>
-      <c r="M20">
-        <v>129.26590764807801</v>
-      </c>
-      <c r="N20">
-        <v>570.74331165567503</v>
-      </c>
-      <c r="O20">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P20">
-        <v>107.48</v>
-      </c>
-      <c r="Q20">
-        <v>1320.9728022665199</v>
-      </c>
-      <c r="R20">
-        <v>32.753527199984802</v>
-      </c>
-      <c r="S20">
-        <v>52.218762991245498</v>
-      </c>
-      <c r="T20">
-        <v>4.7</v>
-      </c>
-      <c r="U20">
-        <v>23.2899999999809</v>
-      </c>
-      <c r="V20">
-        <v>9.5383922320399996</v>
-      </c>
-      <c r="W20">
-        <v>32.44</v>
-      </c>
-      <c r="X20">
-        <v>7488.6312635170498</v>
-      </c>
-      <c r="Y20">
-        <v>0.21679242210949701</v>
-      </c>
-      <c r="Z20">
-        <v>32.4399999999305</v>
-      </c>
-      <c r="AA20">
-        <v>34.939999999958502</v>
-      </c>
-      <c r="AB20">
-        <v>12.4560732747</v>
-      </c>
-      <c r="AC20">
-        <v>34.939999999958502</v>
-      </c>
-      <c r="AD20">
-        <v>107.48</v>
-      </c>
-      <c r="AE20">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF20">
-        <v>34.939999999958502</v>
-      </c>
-      <c r="AG20">
-        <v>1280.7633928576699</v>
-      </c>
-      <c r="AH20">
-        <v>38.880000000001097</v>
-      </c>
-      <c r="AI20">
-        <v>6.6127671504499999</v>
-      </c>
-      <c r="AJ20">
-        <v>700.07142857144902</v>
-      </c>
-      <c r="AK20">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL20">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM20">
-        <v>38.880000000001097</v>
-      </c>
-      <c r="AN20">
-        <v>82.140000000087397</v>
-      </c>
-      <c r="AO20">
-        <v>27.8319342536</v>
-      </c>
-      <c r="AP20">
-        <v>76.360000000000298</v>
-      </c>
-      <c r="AQ20">
-        <v>6025.6691322834604</v>
-      </c>
-      <c r="AR20">
-        <v>2.1172047400084999</v>
-      </c>
-      <c r="AS20">
-        <v>0</v>
-      </c>
-      <c r="AT20">
-        <v>76.360000000080603</v>
-      </c>
-      <c r="AU20">
-        <v>104230.00000002301</v>
-      </c>
-      <c r="AV20">
-        <v>27.66</v>
-      </c>
-      <c r="AW20">
-        <v>4.6494219889800004</v>
-      </c>
-      <c r="AX20">
-        <v>65.259999999999806</v>
-      </c>
-      <c r="AY20">
-        <v>6472.3279347440903</v>
-      </c>
-      <c r="AZ20">
-        <v>6.9187827217000004</v>
-      </c>
-      <c r="BA20">
-        <v>0.49008908628353498</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
-        <v>65.260000000058199</v>
-      </c>
-      <c r="BD20">
-        <v>424.46599999998102</v>
-      </c>
-      <c r="BE20">
-        <v>292.55264922200001</v>
-      </c>
-      <c r="BF20">
-        <v>750</v>
-      </c>
-      <c r="BG20">
-        <v>3567.25719635826</v>
-      </c>
-      <c r="BH20">
-        <v>750.00000000056002</v>
-      </c>
-      <c r="BI20">
-        <v>6.5693026040424503</v>
-      </c>
-      <c r="BJ20">
-        <v>435.34620419999999</v>
-      </c>
-      <c r="BK20">
-        <v>4764.66945047627</v>
-      </c>
-      <c r="BL20">
-        <v>760.10399999969798</v>
-      </c>
-      <c r="BM20">
-        <v>26.850000000022401</v>
-      </c>
-      <c r="BN20">
-        <v>19.38</v>
-      </c>
-      <c r="BO20">
-        <v>0.78453853042543698</v>
-      </c>
-      <c r="BP20">
-        <v>6057.8704815944802</v>
-      </c>
-      <c r="BQ20">
-        <v>3.8</v>
-      </c>
-      <c r="BR20">
-        <v>4.7</v>
-      </c>
-      <c r="BS20">
-        <v>9279.9089735892303</v>
-      </c>
-      <c r="BT20">
-        <v>4.74</v>
-      </c>
-      <c r="BU20">
-        <v>1.67</v>
-      </c>
-      <c r="BV20">
-        <v>7633.9367898950104</v>
-      </c>
-      <c r="BW20">
-        <v>12379.999999998299</v>
-      </c>
-      <c r="BX20">
-        <v>31.7599999999182</v>
-      </c>
-      <c r="BY20">
-        <v>12.38</v>
-      </c>
-      <c r="BZ20">
-        <v>27.87</v>
-      </c>
-      <c r="CA20">
-        <v>32.25</v>
-      </c>
-      <c r="CB20">
-        <v>71.130000000029099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>36.779999999992697</v>
-      </c>
-      <c r="D21" s="2">
-        <v>47.800000000074199</v>
-      </c>
-      <c r="E21" s="2">
-        <v>118.149999999992</v>
-      </c>
-      <c r="F21">
-        <v>52.6</v>
-      </c>
-      <c r="G21">
-        <v>41.489999999962698</v>
-      </c>
-      <c r="H21">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I21">
-        <v>8.6000000000000192</v>
-      </c>
-      <c r="J21">
-        <v>76.887000000036295</v>
-      </c>
-      <c r="K21">
-        <v>604.10699999965095</v>
-      </c>
-      <c r="L21">
-        <v>3207.0217289175098</v>
-      </c>
-      <c r="M21">
-        <v>113.00661389886901</v>
-      </c>
-      <c r="N21">
-        <v>569.62158605187506</v>
-      </c>
-      <c r="O21">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P21">
-        <v>107.48</v>
-      </c>
-      <c r="Q21">
-        <v>1365.23958721453</v>
-      </c>
-      <c r="R21">
-        <v>31.9935272000141</v>
-      </c>
-      <c r="S21">
-        <v>58.813760787462897</v>
-      </c>
-      <c r="T21">
-        <v>5.2</v>
-      </c>
-      <c r="U21">
-        <v>36.779999999992697</v>
-      </c>
-      <c r="V21">
-        <v>11.0696670171</v>
-      </c>
-      <c r="W21">
-        <v>37.47</v>
-      </c>
-      <c r="X21">
-        <v>7488.4858941272896</v>
-      </c>
-      <c r="Y21">
-        <v>0.43172560381821101</v>
-      </c>
-      <c r="Z21">
-        <v>37.469999999930202</v>
-      </c>
-      <c r="AA21">
-        <v>41.489999999962698</v>
-      </c>
-      <c r="AB21">
-        <v>14.7642005746</v>
-      </c>
-      <c r="AC21">
-        <v>41.489999999962698</v>
-      </c>
-      <c r="AD21">
-        <v>107.48</v>
-      </c>
-      <c r="AE21">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF21">
-        <v>41.489999999962698</v>
-      </c>
-      <c r="AG21">
-        <v>1552.3454301094</v>
-      </c>
-      <c r="AH21">
-        <v>47.800000000074199</v>
-      </c>
-      <c r="AI21">
-        <v>8.1298937703499998</v>
-      </c>
-      <c r="AJ21">
-        <v>777.39247311948702</v>
-      </c>
-      <c r="AK21">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL21">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM21">
-        <v>47.800000000074199</v>
-      </c>
-      <c r="AN21">
-        <v>118.149999999992</v>
-      </c>
-      <c r="AO21">
-        <v>33.6363068263</v>
-      </c>
-      <c r="AP21">
-        <v>92.230000000000203</v>
-      </c>
-      <c r="AQ21">
-        <v>6026.2601801509099</v>
-      </c>
-      <c r="AR21">
-        <v>3.01776898388793</v>
-      </c>
-      <c r="AS21">
-        <v>0</v>
-      </c>
-      <c r="AT21">
-        <v>92.230000000044498</v>
-      </c>
-      <c r="AU21">
-        <v>168980.00000009299</v>
-      </c>
-      <c r="AV21">
-        <v>52.6</v>
-      </c>
-      <c r="AW21">
-        <v>4.4925317527999997</v>
-      </c>
-      <c r="AX21">
-        <v>68.430000000000206</v>
-      </c>
-      <c r="AY21">
-        <v>6468.5340138123302</v>
-      </c>
-      <c r="AZ21">
-        <v>6.0383491301100003</v>
-      </c>
-      <c r="BA21">
-        <v>0.42929374893337202</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
-        <v>68.429999999921193</v>
-      </c>
-      <c r="BD21">
-        <v>604.10699999965095</v>
-      </c>
-      <c r="BE21">
-        <v>309.70926353999999</v>
-      </c>
-      <c r="BF21">
-        <v>800.00000000000296</v>
-      </c>
-      <c r="BG21">
-        <v>3564.8298634186299</v>
-      </c>
-      <c r="BH21">
-        <v>799.99999999908903</v>
-      </c>
-      <c r="BI21">
-        <v>10.966616848121101</v>
-      </c>
-      <c r="BJ21">
-        <v>416.275891855</v>
-      </c>
-      <c r="BK21">
-        <v>4749.3465201057797</v>
-      </c>
-      <c r="BL21">
-        <v>813.61600000048998</v>
-      </c>
-      <c r="BM21">
-        <v>76.887000000036295</v>
-      </c>
-      <c r="BN21">
-        <v>25.33</v>
-      </c>
-      <c r="BO21">
-        <v>1.6062150464730101</v>
-      </c>
-      <c r="BP21">
-        <v>6061.3645417978896</v>
-      </c>
-      <c r="BQ21">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="BR21">
-        <v>5.2</v>
-      </c>
-      <c r="BS21">
-        <v>9279.0452292978898</v>
-      </c>
-      <c r="BT21">
-        <v>8.6000000000000192</v>
-      </c>
-      <c r="BU21">
-        <v>1.84</v>
-      </c>
-      <c r="BV21">
-        <v>7637.2764877624604</v>
-      </c>
-      <c r="BW21">
-        <v>22099.9999999594</v>
-      </c>
-      <c r="BX21">
-        <v>47.429999999991303</v>
-      </c>
-      <c r="BY21">
-        <v>22.1</v>
-      </c>
-      <c r="BZ21">
-        <v>76.75</v>
-      </c>
-      <c r="CA21">
-        <v>52.65</v>
-      </c>
-      <c r="CB21">
-        <v>95.450000000114798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44681</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>78.319999999959606</v>
-      </c>
-      <c r="D22" s="2">
-        <v>80.930000000082302</v>
-      </c>
-      <c r="E22" s="2">
-        <v>121.060000000055</v>
-      </c>
-      <c r="F22">
-        <v>85.429999999999893</v>
-      </c>
-      <c r="G22">
-        <v>68.560000000055396</v>
-      </c>
-      <c r="H22">
-        <v>8.7600000000000104</v>
-      </c>
-      <c r="I22">
-        <v>23.32</v>
-      </c>
-      <c r="J22">
-        <v>128.17600000006999</v>
-      </c>
-      <c r="K22">
-        <v>893.38399999981596</v>
-      </c>
-      <c r="L22">
-        <v>3232.9513192741802</v>
-      </c>
-      <c r="M22">
-        <v>124.852895854713</v>
-      </c>
-      <c r="N22">
-        <v>589.83150290688502</v>
-      </c>
-      <c r="O22">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P22">
-        <v>107.48</v>
-      </c>
-      <c r="Q22">
-        <v>1439.32545958675</v>
-      </c>
-      <c r="R22">
-        <v>30.7535272000619</v>
-      </c>
-      <c r="S22">
-        <v>80.063500609586697</v>
-      </c>
-      <c r="T22">
-        <v>10</v>
-      </c>
-      <c r="U22">
-        <v>78.319999999959606</v>
-      </c>
-      <c r="V22">
-        <v>16.947128064099999</v>
-      </c>
-      <c r="W22">
-        <v>57.38</v>
-      </c>
-      <c r="X22">
-        <v>7491.08736476377</v>
-      </c>
-      <c r="Y22">
-        <v>0.730083144361099</v>
-      </c>
-      <c r="Z22">
-        <v>57.380000000057102</v>
-      </c>
-      <c r="AA22">
-        <v>68.560000000055396</v>
-      </c>
-      <c r="AB22">
-        <v>24.397049684100001</v>
-      </c>
-      <c r="AC22">
-        <v>68.560000000055396</v>
-      </c>
-      <c r="AD22">
-        <v>107.48</v>
-      </c>
-      <c r="AE22">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF22">
-        <v>68.560000000055396</v>
-      </c>
-      <c r="AG22">
-        <v>2844.5083333345501</v>
-      </c>
-      <c r="AH22">
-        <v>80.930000000082302</v>
-      </c>
-      <c r="AI22">
-        <v>13.764692527899999</v>
-      </c>
-      <c r="AJ22">
-        <v>1360.0736111125</v>
-      </c>
-      <c r="AK22">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL22">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM22">
-        <v>80.930000000082302</v>
-      </c>
-      <c r="AN22">
-        <v>121.060000000055</v>
-      </c>
-      <c r="AO22">
-        <v>32.589230134600001</v>
-      </c>
-      <c r="AP22">
-        <v>89.26</v>
-      </c>
-      <c r="AQ22">
-        <v>6026.9524262795203</v>
-      </c>
-      <c r="AR22">
-        <v>4.8332259047716404</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>89.260000000072196</v>
-      </c>
-      <c r="AU22">
-        <v>304419.99999908498</v>
-      </c>
-      <c r="AV22">
-        <v>85.429999999999893</v>
-      </c>
-      <c r="AW22">
-        <v>4.7556397003299997</v>
-      </c>
-      <c r="AX22">
-        <v>72.989999999999895</v>
-      </c>
-      <c r="AY22">
-        <v>6471.3309142388398</v>
-      </c>
-      <c r="AZ22">
-        <v>6.6050551393500001</v>
-      </c>
-      <c r="BA22">
-        <v>0.593718043771995</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
-        <v>72.990000000011705</v>
-      </c>
-      <c r="BD22">
-        <v>893.38399999981596</v>
-      </c>
-      <c r="BE22">
-        <v>274.022603049</v>
-      </c>
-      <c r="BF22">
-        <v>710.00000000000296</v>
-      </c>
-      <c r="BG22">
-        <v>3566.7791086614102</v>
-      </c>
-      <c r="BH22">
-        <v>710.00000000084003</v>
-      </c>
-      <c r="BI22">
-        <v>17.511129720195701</v>
-      </c>
-      <c r="BJ22">
-        <v>380.58694867899999</v>
-      </c>
-      <c r="BK22">
-        <v>4761.6333959224003</v>
-      </c>
-      <c r="BL22">
-        <v>725.78999999902805</v>
-      </c>
-      <c r="BM22">
-        <v>128.17600000006999</v>
-      </c>
-      <c r="BN22">
-        <v>29.69</v>
-      </c>
-      <c r="BO22">
-        <v>2.5701276321045698</v>
-      </c>
-      <c r="BP22">
-        <v>6066.9857497047196</v>
-      </c>
-      <c r="BQ22">
-        <v>8.7600000000000104</v>
-      </c>
-      <c r="BR22">
-        <v>10</v>
-      </c>
-      <c r="BS22">
-        <v>9277.6057519684891</v>
-      </c>
-      <c r="BT22">
-        <v>23.32</v>
-      </c>
-      <c r="BU22">
-        <v>1.79</v>
-      </c>
-      <c r="BV22">
-        <v>7646.9945189960599</v>
-      </c>
-      <c r="BW22">
-        <v>52609.999999912499</v>
-      </c>
-      <c r="BX22">
-        <v>82.300000000025193</v>
-      </c>
-      <c r="BY22">
-        <v>52.61</v>
-      </c>
-      <c r="BZ22">
-        <v>215.16</v>
-      </c>
-      <c r="CA22">
-        <v>130.33000000000001</v>
-      </c>
-      <c r="CB22">
-        <v>169.26000000007201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2">
-        <v>206.79000000010001</v>
-      </c>
-      <c r="D23" s="2">
-        <v>270.24999999977598</v>
-      </c>
-      <c r="E23" s="2">
-        <v>172.850000000092</v>
-      </c>
-      <c r="F23">
-        <v>163.75</v>
-      </c>
-      <c r="G23">
-        <v>236.10999999950599</v>
-      </c>
-      <c r="H23">
-        <v>28.28</v>
-      </c>
-      <c r="I23">
-        <v>71.429999999999794</v>
-      </c>
-      <c r="J23">
-        <v>210.35699999998701</v>
-      </c>
-      <c r="K23">
-        <v>2127.7120000006798</v>
-      </c>
-      <c r="L23">
-        <v>3310.2469691879</v>
-      </c>
-      <c r="M23">
-        <v>195.843039893721</v>
-      </c>
-      <c r="N23">
-        <v>585.49202200326397</v>
-      </c>
-      <c r="O23">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P23">
-        <v>107.48</v>
-      </c>
-      <c r="Q23">
-        <v>1449.36767855013</v>
-      </c>
-      <c r="R23">
-        <v>45.033527199998197</v>
-      </c>
-      <c r="S23">
-        <v>109.631199043732</v>
-      </c>
-      <c r="T23">
-        <v>14</v>
-      </c>
-      <c r="U23">
-        <v>206.79000000010001</v>
-      </c>
-      <c r="V23">
-        <v>60.791778887100001</v>
-      </c>
-      <c r="W23">
-        <v>210.09</v>
-      </c>
-      <c r="X23">
-        <v>7490.5321927493396</v>
-      </c>
-      <c r="Y23">
-        <v>1.0394809040312301</v>
-      </c>
-      <c r="Z23">
-        <v>205.92379022796001</v>
-      </c>
-      <c r="AA23">
-        <v>236.10999999950599</v>
-      </c>
-      <c r="AB23">
-        <v>84.019652872099996</v>
-      </c>
-      <c r="AC23">
-        <v>236.10999999950599</v>
-      </c>
-      <c r="AD23">
-        <v>107.48</v>
-      </c>
-      <c r="AE23">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF23">
-        <v>236.10999999950599</v>
-      </c>
-      <c r="AG23">
-        <v>7724.3212365601003</v>
-      </c>
-      <c r="AH23">
-        <v>270.24999999977598</v>
-      </c>
-      <c r="AI23">
-        <v>23.153793521299999</v>
-      </c>
-      <c r="AJ23">
-        <v>4395.1948924694698</v>
-      </c>
-      <c r="AK23">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL23">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM23">
-        <v>136.13355371903401</v>
-      </c>
-      <c r="AN23">
-        <v>172.850000000092</v>
-      </c>
-      <c r="AO23">
-        <v>30.993524255200001</v>
-      </c>
-      <c r="AP23">
-        <v>84.689999999999699</v>
-      </c>
-      <c r="AQ23">
-        <v>6028.9911702755799</v>
-      </c>
-      <c r="AR23">
-        <v>7.7725237265851899</v>
-      </c>
-      <c r="AS23">
-        <v>0</v>
-      </c>
-      <c r="AT23">
-        <v>84.690000000091601</v>
-      </c>
-      <c r="AU23">
-        <v>616660.00000011898</v>
-      </c>
-      <c r="AV23">
-        <v>163.75</v>
-      </c>
-      <c r="AW23">
-        <v>6.67968946486</v>
-      </c>
-      <c r="AX23">
-        <v>91.440000000000296</v>
-      </c>
-      <c r="AY23">
-        <v>6484.9921971784697</v>
-      </c>
-      <c r="AZ23">
-        <v>8.9780772377200009</v>
-      </c>
-      <c r="BA23">
-        <v>1.3198559615575001</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
-      </c>
-      <c r="BC23">
-        <v>91.440000000084495</v>
-      </c>
-      <c r="BD23">
-        <v>2127.7120000006798</v>
-      </c>
-      <c r="BE23">
-        <v>279.841179173</v>
-      </c>
-      <c r="BF23">
-        <v>710</v>
-      </c>
-      <c r="BG23">
-        <v>3582.3412697506501</v>
-      </c>
-      <c r="BH23">
-        <v>710.00000000063005</v>
-      </c>
-      <c r="BI23">
-        <v>22.170339023533799</v>
-      </c>
-      <c r="BJ23">
-        <v>376.13061716800001</v>
-      </c>
-      <c r="BK23">
-        <v>4865.0068546702896</v>
-      </c>
-      <c r="BL23">
-        <v>726.29799999933198</v>
-      </c>
-      <c r="BM23">
-        <v>210.35699999998701</v>
-      </c>
-      <c r="BN23">
-        <v>159.72999999999999</v>
-      </c>
-      <c r="BO23">
-        <v>3.7657810378023102</v>
-      </c>
-      <c r="BP23">
-        <v>6067.7268592519604</v>
-      </c>
-      <c r="BQ23">
-        <v>28.28</v>
-      </c>
-      <c r="BR23">
-        <v>14</v>
-      </c>
-      <c r="BS23">
-        <v>9291.9593153215101</v>
-      </c>
-      <c r="BT23">
-        <v>71.429999999999794</v>
-      </c>
-      <c r="BU23">
-        <v>41.41</v>
-      </c>
-      <c r="BV23">
-        <v>7658.9778343175803</v>
-      </c>
-      <c r="BW23">
-        <v>146119.999999964</v>
-      </c>
-      <c r="BX23">
-        <v>305.84999999907001</v>
-      </c>
-      <c r="BY23">
-        <v>146.12</v>
-      </c>
-      <c r="BZ23">
-        <v>531.97</v>
-      </c>
-      <c r="CA23">
-        <v>266.7</v>
-      </c>
-      <c r="CB23">
-        <v>474.95000000005803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>239.330000000914</v>
-      </c>
-      <c r="D24" s="2">
-        <v>95.210000000004996</v>
-      </c>
-      <c r="E24" s="2">
-        <v>286.25000000042002</v>
-      </c>
-      <c r="F24">
-        <v>299.23</v>
-      </c>
-      <c r="G24">
-        <v>61.4000000000336</v>
-      </c>
-      <c r="H24">
-        <v>41.72</v>
-      </c>
-      <c r="I24">
-        <v>70.349999999999696</v>
-      </c>
-      <c r="J24">
-        <v>194.689999999902</v>
-      </c>
-      <c r="K24">
-        <v>2378.4250000009101</v>
-      </c>
-      <c r="L24">
-        <v>3373.36691152511</v>
-      </c>
-      <c r="M24">
-        <v>296.98183186170098</v>
-      </c>
-      <c r="N24">
-        <v>782.01737566065901</v>
-      </c>
-      <c r="O24">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P24">
-        <v>107.48</v>
-      </c>
-      <c r="Q24">
-        <v>1333.2848378942101</v>
-      </c>
-      <c r="R24">
-        <v>66.753527200053199</v>
-      </c>
-      <c r="S24">
-        <v>109.168603955072</v>
-      </c>
-      <c r="T24">
-        <v>20</v>
-      </c>
-      <c r="U24">
-        <v>239.330000000914</v>
-      </c>
-      <c r="V24">
-        <v>12.6029018207</v>
-      </c>
-      <c r="W24">
-        <v>41.41</v>
-      </c>
-      <c r="X24">
-        <v>7514.1152974081297</v>
-      </c>
-      <c r="Y24">
-        <v>1.3946463425277</v>
-      </c>
-      <c r="Z24">
-        <v>41.410000000063803</v>
-      </c>
-      <c r="AA24">
-        <v>61.4000000000336</v>
-      </c>
-      <c r="AB24">
-        <v>21.849166432400001</v>
-      </c>
-      <c r="AC24">
-        <v>61.4000000000336</v>
-      </c>
-      <c r="AD24">
-        <v>107.48</v>
-      </c>
-      <c r="AE24">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF24">
-        <v>61.4000000000336</v>
-      </c>
-      <c r="AG24">
-        <v>3606.9763888841999</v>
-      </c>
-      <c r="AH24">
-        <v>95.210000000004996</v>
-      </c>
-      <c r="AI24">
-        <v>16.193455771499998</v>
-      </c>
-      <c r="AJ24">
-        <v>1600.05694444453</v>
-      </c>
-      <c r="AK24">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL24">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM24">
-        <v>95.210000000004996</v>
-      </c>
-      <c r="AN24">
-        <v>286.25000000042002</v>
-      </c>
-      <c r="AO24">
-        <v>77.112920621900003</v>
-      </c>
-      <c r="AP24">
-        <v>210.05</v>
-      </c>
-      <c r="AQ24">
-        <v>6030.6296130577402</v>
-      </c>
-      <c r="AR24">
-        <v>10.555259651237799</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>210.04999999994101</v>
-      </c>
-      <c r="AU24">
-        <v>630269.99999955599</v>
-      </c>
-      <c r="AV24">
-        <v>299.23</v>
-      </c>
-      <c r="AW24">
-        <v>8.8222106335500001</v>
-      </c>
-      <c r="AX24">
-        <v>195.77</v>
-      </c>
-      <c r="AY24">
-        <v>6499.7486889107504</v>
-      </c>
-      <c r="AZ24">
-        <v>12.253070324399999</v>
-      </c>
-      <c r="BA24">
-        <v>2.3212080321609898</v>
-      </c>
-      <c r="BB24">
-        <v>92.460850298719194</v>
-      </c>
-      <c r="BC24">
-        <v>103.30914970129901</v>
-      </c>
-      <c r="BD24">
-        <v>2378.4250000009101</v>
-      </c>
-      <c r="BE24">
-        <v>305.68856813899998</v>
-      </c>
-      <c r="BF24">
-        <v>750.00000000000102</v>
-      </c>
-      <c r="BG24">
-        <v>3598.5586729986799</v>
-      </c>
-      <c r="BH24">
-        <v>749.99999999999898</v>
-      </c>
-      <c r="BI24">
-        <v>39.040337140387599</v>
-      </c>
-      <c r="BJ24">
-        <v>424.56745574899998</v>
-      </c>
-      <c r="BK24">
-        <v>4982.7390547314899</v>
-      </c>
-      <c r="BL24">
-        <v>767.03499999922303</v>
-      </c>
-      <c r="BM24">
-        <v>194.689999999902</v>
-      </c>
-      <c r="BN24">
-        <v>252.7</v>
-      </c>
-      <c r="BO24">
-        <v>4.3078406531667204</v>
-      </c>
-      <c r="BP24">
-        <v>6058.8519492453997</v>
-      </c>
-      <c r="BQ24">
-        <v>41.72</v>
-      </c>
-      <c r="BR24">
-        <v>20</v>
-      </c>
-      <c r="BS24">
-        <v>9307.9940995406705</v>
-      </c>
-      <c r="BT24">
-        <v>70.349999999999696</v>
-      </c>
-      <c r="BU24">
-        <v>70.250000000000099</v>
-      </c>
-      <c r="BV24">
-        <v>7658.7995771325404</v>
-      </c>
-      <c r="BW24">
-        <v>151610.000000039</v>
-      </c>
-      <c r="BX24">
-        <v>404.309999999593</v>
-      </c>
-      <c r="BY24">
-        <v>151.61000000000001</v>
-      </c>
-      <c r="BZ24">
-        <v>420.22</v>
-      </c>
-      <c r="CA24">
-        <v>180.42</v>
-      </c>
-      <c r="CB24">
-        <v>214.62999999972101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44773</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2">
-        <v>120.21000000001899</v>
-      </c>
-      <c r="D25" s="2">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="E25" s="2">
-        <v>176.84999999990299</v>
-      </c>
-      <c r="F25">
-        <v>177.52</v>
-      </c>
-      <c r="G25">
-        <v>83.919999999919</v>
-      </c>
-      <c r="H25">
-        <v>20.14</v>
-      </c>
-      <c r="I25">
-        <v>29.01</v>
-      </c>
-      <c r="J25">
-        <v>73.706999999974897</v>
-      </c>
-      <c r="K25">
-        <v>936.22300000078599</v>
-      </c>
-      <c r="L25">
-        <v>3468.8078725400401</v>
-      </c>
-      <c r="M25">
-        <v>327.62175542161702</v>
-      </c>
-      <c r="N25">
-        <v>823.03987755384196</v>
-      </c>
-      <c r="O25">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P25">
-        <v>107.48</v>
-      </c>
-      <c r="Q25">
-        <v>1310.35550984165</v>
-      </c>
-      <c r="R25">
-        <v>63.3935272000205</v>
-      </c>
-      <c r="S25">
-        <v>96.059854225810696</v>
-      </c>
-      <c r="T25">
-        <v>23.5</v>
-      </c>
-      <c r="U25">
-        <v>120.21000000001899</v>
-      </c>
-      <c r="V25">
-        <v>24.4647045715</v>
-      </c>
-      <c r="W25">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="X25">
-        <v>7518.6632880249299</v>
-      </c>
-      <c r="Y25">
-        <v>1.58749811043291</v>
-      </c>
-      <c r="Z25">
-        <v>77.600000000022305</v>
-      </c>
-      <c r="AA25">
-        <v>83.919999999919</v>
-      </c>
-      <c r="AB25">
-        <v>29.8628997884</v>
-      </c>
-      <c r="AC25">
-        <v>83.919999999919</v>
-      </c>
-      <c r="AD25">
-        <v>107.48</v>
-      </c>
-      <c r="AE25">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF25">
-        <v>83.919999999919</v>
-      </c>
-      <c r="AG25">
-        <v>1603.08736559051</v>
-      </c>
-      <c r="AH25">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="AI25">
-        <v>16.7326139985</v>
-      </c>
-      <c r="AJ25">
-        <v>1599.9973118263799</v>
-      </c>
-      <c r="AK25">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL25">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM25">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="AN25">
-        <v>176.84999999990299</v>
-      </c>
-      <c r="AO25">
-        <v>23.455234749999999</v>
-      </c>
-      <c r="AP25">
-        <v>63.669999999999803</v>
-      </c>
-      <c r="AQ25">
-        <v>6033.0634760498597</v>
-      </c>
-      <c r="AR25">
-        <v>13.9214000519391</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>63.669999999940003</v>
-      </c>
-      <c r="AU25">
-        <v>163699.99999999601</v>
-      </c>
-      <c r="AV25">
-        <v>177.52</v>
-      </c>
-      <c r="AW25">
-        <v>9.5065704903700006</v>
-      </c>
-      <c r="AX25">
-        <v>144.19999999999999</v>
-      </c>
-      <c r="AY25">
-        <v>6503.7300567585198</v>
-      </c>
-      <c r="AZ25">
-        <v>12.7776485086</v>
-      </c>
-      <c r="BA25">
-        <v>2.6800764398224399</v>
-      </c>
-      <c r="BB25">
-        <v>42.463740426415697</v>
-      </c>
-      <c r="BC25">
-        <v>101.736259573552</v>
-      </c>
-      <c r="BD25">
-        <v>936.22300000078599</v>
-      </c>
-      <c r="BE25">
-        <v>352.70052444800001</v>
-      </c>
-      <c r="BF25">
-        <v>849.99999999999898</v>
-      </c>
-      <c r="BG25">
-        <v>3598.9159246391</v>
-      </c>
-      <c r="BH25">
-        <v>849.99999999943896</v>
-      </c>
-      <c r="BI25">
-        <v>49.653866310893598</v>
-      </c>
-      <c r="BJ25">
-        <v>474.05984468899999</v>
-      </c>
-      <c r="BK25">
-        <v>4985.4478786462796</v>
-      </c>
-      <c r="BL25">
-        <v>874.20600000017396</v>
-      </c>
-      <c r="BM25">
-        <v>73.706999999974897</v>
-      </c>
-      <c r="BN25">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="BO25">
-        <v>4.3263280486968698</v>
-      </c>
-      <c r="BP25">
-        <v>6057.0183305774199</v>
-      </c>
-      <c r="BQ25">
-        <v>20.14</v>
-      </c>
-      <c r="BR25">
-        <v>23.5</v>
-      </c>
-      <c r="BS25">
-        <v>9305.7798431102292</v>
-      </c>
-      <c r="BT25">
-        <v>29.01</v>
-      </c>
-      <c r="BU25">
-        <v>41.54</v>
-      </c>
-      <c r="BV25">
-        <v>7653.6395600721698</v>
-      </c>
-      <c r="BW25">
-        <v>67389.999999905194</v>
-      </c>
-      <c r="BX25">
-        <v>102.05000000007399</v>
-      </c>
-      <c r="BY25">
-        <v>67.39</v>
-      </c>
-      <c r="BZ25">
-        <v>100.03</v>
-      </c>
-      <c r="CA25">
-        <v>65.19</v>
-      </c>
-      <c r="CB25">
-        <v>98.569999999945594</v>
-      </c>
-    </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2">
-        <v>72.160000000105896</v>
-      </c>
-      <c r="D26" s="2">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="E26" s="2">
-        <v>90.669999999911994</v>
-      </c>
-      <c r="F26">
-        <v>76.510000000000304</v>
-      </c>
-      <c r="G26">
-        <v>90.250000000035001</v>
-      </c>
-      <c r="H26">
-        <v>10.3</v>
-      </c>
-      <c r="I26">
-        <v>19.8</v>
-      </c>
-      <c r="J26">
-        <v>61.096000000101299</v>
-      </c>
-      <c r="K26">
-        <v>555.79099999915695</v>
-      </c>
-      <c r="L26">
-        <v>3461.5690362814098</v>
-      </c>
-      <c r="M26">
-        <v>323.31331963826801</v>
-      </c>
-      <c r="N26">
-        <v>807.15123231122902</v>
-      </c>
-      <c r="O26">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P26">
-        <v>107.48</v>
-      </c>
-      <c r="Q26">
-        <v>1288.8002347085701</v>
-      </c>
-      <c r="R26">
-        <v>54.693527199990797</v>
-      </c>
-      <c r="S26">
-        <v>77.6047095450744</v>
-      </c>
-      <c r="T26">
-        <v>19</v>
-      </c>
-      <c r="U26">
-        <v>72.160000000105896</v>
-      </c>
-      <c r="V26">
-        <v>27.4679029178</v>
-      </c>
-      <c r="W26">
-        <v>86.8299999999997</v>
-      </c>
-      <c r="X26">
-        <v>7516.91625685695</v>
-      </c>
-      <c r="Y26">
-        <v>1.2186452393240801</v>
-      </c>
-      <c r="Z26">
-        <v>86.829999999919806</v>
-      </c>
-      <c r="AA26">
-        <v>90.250000000035001</v>
-      </c>
-      <c r="AB26">
-        <v>32.128529330500001</v>
-      </c>
-      <c r="AC26">
-        <v>90.250000000035001</v>
-      </c>
-      <c r="AD26">
-        <v>107.48</v>
-      </c>
-      <c r="AE26">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF26">
-        <v>90.250000000035001</v>
-      </c>
-      <c r="AG26">
-        <v>1250.6586021518799</v>
-      </c>
-      <c r="AH26">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="AI26">
-        <v>16.7326139985</v>
-      </c>
-      <c r="AJ26">
-        <v>1599.9973118263799</v>
-      </c>
-      <c r="AK26">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL26">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM26">
-        <v>98.379999999903006</v>
-      </c>
-      <c r="AN26">
-        <v>90.669999999911994</v>
-      </c>
-      <c r="AO26">
-        <v>31.4054589345</v>
-      </c>
-      <c r="AP26">
-        <v>85.09</v>
-      </c>
-      <c r="AQ26">
-        <v>6032.8806111548502</v>
-      </c>
-      <c r="AR26">
-        <v>13.1083888225286</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>85.089999999964107</v>
-      </c>
-      <c r="AU26">
-        <v>110209.999999949</v>
-      </c>
-      <c r="AV26">
-        <v>76.510000000000304</v>
-      </c>
-      <c r="AW26">
-        <v>7.4587418672399997</v>
-      </c>
-      <c r="AX26">
-        <v>78.549999999999798</v>
-      </c>
-      <c r="AY26">
-        <v>6503.1792850393604</v>
-      </c>
-      <c r="AZ26">
-        <v>10.0251906818</v>
-      </c>
-      <c r="BA26">
-        <v>2.2684357833458599</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>78.550000000018102</v>
-      </c>
-      <c r="BD26">
-        <v>555.79099999915695</v>
-      </c>
-      <c r="BE26">
-        <v>372.04923806599999</v>
-      </c>
-      <c r="BF26">
-        <v>900.00000000000205</v>
-      </c>
-      <c r="BG26">
-        <v>3595.0383959317601</v>
-      </c>
-      <c r="BH26">
-        <v>899.999999999789</v>
-      </c>
-      <c r="BI26">
-        <v>49.098401716893399</v>
-      </c>
-      <c r="BJ26">
-        <v>500.066180196</v>
-      </c>
-      <c r="BK26">
-        <v>4956.3139963254398</v>
-      </c>
-      <c r="BL26">
-        <v>920.31000000086703</v>
-      </c>
-      <c r="BM26">
-        <v>61.096000000101299</v>
-      </c>
-      <c r="BN26">
-        <v>30.68</v>
-      </c>
-      <c r="BO26">
-        <v>3.4842751375529901</v>
-      </c>
-      <c r="BP26">
-        <v>6055.2704546915902</v>
-      </c>
-      <c r="BQ26">
-        <v>10.3</v>
-      </c>
-      <c r="BR26">
-        <v>19</v>
-      </c>
-      <c r="BS26">
-        <v>9299.6603592519605</v>
-      </c>
-      <c r="BT26">
-        <v>19.8</v>
-      </c>
-      <c r="BU26">
-        <v>37.81</v>
-      </c>
-      <c r="BV26">
-        <v>7645.9313506889703</v>
-      </c>
-      <c r="BW26">
-        <v>38629.999999973101</v>
-      </c>
-      <c r="BX26">
-        <v>69.309999999901294</v>
-      </c>
-      <c r="BY26">
-        <v>38.630000000000003</v>
-      </c>
-      <c r="BZ26">
-        <v>25.12</v>
-      </c>
-      <c r="CA26">
-        <v>43.52</v>
-      </c>
-      <c r="CB26">
-        <v>76.900000000082599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>48.169999999925999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>95.210000000004996</v>
-      </c>
-      <c r="E27" s="2">
-        <v>74.689999999902398</v>
-      </c>
-      <c r="F27">
-        <v>45.87</v>
-      </c>
-      <c r="G27">
-        <v>89.060000000097403</v>
-      </c>
-      <c r="H27">
-        <v>7.3700000000000303</v>
-      </c>
-      <c r="I27">
-        <v>17.47</v>
-      </c>
-      <c r="J27">
-        <v>52.847000000041298</v>
-      </c>
-      <c r="K27">
-        <v>510.23299999898097</v>
-      </c>
-      <c r="L27">
-        <v>3431.6881695689499</v>
-      </c>
-      <c r="M27">
-        <v>301.890735930397</v>
-      </c>
-      <c r="N27">
-        <v>767.83632552717802</v>
-      </c>
-      <c r="O27">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="P27">
-        <v>107.48</v>
-      </c>
-      <c r="Q27">
-        <v>1283.02025523666</v>
-      </c>
-      <c r="R27">
-        <v>44.563527200036503</v>
-      </c>
-      <c r="S27">
-        <v>65.875615964040904</v>
-      </c>
-      <c r="T27">
-        <v>17.5</v>
-      </c>
-      <c r="U27">
-        <v>48.169999999925999</v>
-      </c>
-      <c r="V27">
-        <v>27.140317016099999</v>
-      </c>
-      <c r="W27">
-        <v>86.439999999999799</v>
-      </c>
-      <c r="X27">
-        <v>7512.5141742125898</v>
-      </c>
-      <c r="Y27">
-        <v>1.044906783421</v>
-      </c>
-      <c r="Z27">
-        <v>86.439999999944504</v>
-      </c>
-      <c r="AA27">
-        <v>89.060000000097403</v>
-      </c>
-      <c r="AB27">
-        <v>31.700805563199999</v>
-      </c>
-      <c r="AC27">
-        <v>89.060000000097403</v>
-      </c>
-      <c r="AD27">
-        <v>107.48</v>
-      </c>
-      <c r="AE27">
-        <v>7147.9356402230896</v>
-      </c>
-      <c r="AF27">
-        <v>89.060000000097403</v>
-      </c>
-      <c r="AG27">
-        <v>1770.80138889005</v>
-      </c>
-      <c r="AH27">
-        <v>95.210000000004996</v>
-      </c>
-      <c r="AI27">
-        <v>8.3064697702799997</v>
-      </c>
-      <c r="AJ27">
-        <v>1600.05694444453</v>
-      </c>
-      <c r="AK27">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="AL27">
-        <v>6749.63335429789</v>
-      </c>
-      <c r="AM27">
-        <v>47.969373036456801</v>
-      </c>
-      <c r="AN27">
-        <v>74.689999999902398</v>
-      </c>
-      <c r="AO27">
-        <v>34.7440809462</v>
-      </c>
-      <c r="AP27">
-        <v>94.21</v>
-      </c>
-      <c r="AQ27">
-        <v>6032.12299055117</v>
-      </c>
-      <c r="AR27">
-        <v>11.5561015341264</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>94.209999999920896</v>
-      </c>
-      <c r="AU27">
-        <v>113109.99999995501</v>
-      </c>
-      <c r="AV27">
-        <v>45.87</v>
-      </c>
-      <c r="AW27">
-        <v>6.1185605258100004</v>
-      </c>
-      <c r="AX27">
-        <v>65.449999999999903</v>
-      </c>
-      <c r="AY27">
-        <v>6500.3929664041898</v>
-      </c>
-      <c r="AZ27">
-        <v>8.4980007302999994</v>
-      </c>
-      <c r="BA27">
-        <v>1.84258370748198</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>65.4500000001008</v>
-      </c>
-      <c r="BD27">
-        <v>510.23299999898097</v>
-      </c>
-      <c r="BE27">
-        <v>275.97417320099999</v>
-      </c>
-      <c r="BF27">
-        <v>669.99999999999795</v>
-      </c>
-      <c r="BG27">
-        <v>3592.9925388123302</v>
-      </c>
-      <c r="BH27">
-        <v>669.99999999957902</v>
-      </c>
-      <c r="BI27">
-        <v>44.570325486598001</v>
-      </c>
-      <c r="BJ27">
-        <v>383.297462779</v>
-      </c>
-      <c r="BK27">
-        <v>4941.17790261763</v>
-      </c>
-      <c r="BL27">
-        <v>683.83700000030501</v>
-      </c>
-      <c r="BM27">
-        <v>52.847000000041298</v>
-      </c>
-      <c r="BN27">
-        <v>29.69</v>
-      </c>
-      <c r="BO27">
-        <v>2.6669794743477602</v>
-      </c>
-      <c r="BP27">
-        <v>6054.7977873687596</v>
-      </c>
-      <c r="BQ27">
-        <v>7.3700000000000303</v>
-      </c>
-      <c r="BR27">
-        <v>17.5</v>
-      </c>
-      <c r="BS27">
-        <v>9291.5513646325398</v>
-      </c>
-      <c r="BT27">
-        <v>17.47</v>
-      </c>
-      <c r="BU27">
-        <v>28.88</v>
-      </c>
-      <c r="BV27">
-        <v>7640.6503755249296</v>
-      </c>
-      <c r="BW27">
-        <v>32399.999999907501</v>
-      </c>
-      <c r="BX27">
-        <v>62.090000000020098</v>
-      </c>
-      <c r="BY27">
-        <v>32.4</v>
-      </c>
-      <c r="BZ27">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="CA27">
-        <v>65.159999999999897</v>
-      </c>
-      <c r="CB27">
-        <v>105.370000000069</v>
-      </c>
-    </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -7515,7 +1440,7 @@
         <v>250658.000000011</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -7532,7 +1457,7 @@
         <v>1499999.9999989599</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -7549,7 +1474,7 @@
         <v>1457845.00000043</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -7566,7 +1491,7 @@
         <v>16064.0000000297</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -8178,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA6D717-0517-4A54-BC46-0ECF9614C4A0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:E33"/>
     </sheetView>
   </sheetViews>
@@ -8220,15 +2145,15 @@
       </c>
       <c r="C3" s="2">
         <f>YearlyUse_Op!C3-YearlyUse_Dev!C3</f>
-        <v>-2448389.75</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <f>YearlyUse_Op!D3-YearlyUse_Dev!D3</f>
-        <v>-2692712.9729999998</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <f>YearlyUse_Op!E3-YearlyUse_Dev!E3</f>
-        <v>-2747733.9299999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8240,15 +2165,15 @@
       </c>
       <c r="C4" s="2">
         <f>YearlyUse_Op!C4-YearlyUse_Dev!C4</f>
-        <v>-2546053.71</v>
+        <v>2.6999041438102722E-6</v>
       </c>
       <c r="D4" s="2">
         <f>YearlyUse_Op!D4-YearlyUse_Dev!D4</f>
-        <v>-2747993.79</v>
+        <v>-1.9976869225502014E-7</v>
       </c>
       <c r="E4" s="2">
         <f>YearlyUse_Op!E4-YearlyUse_Dev!E4</f>
-        <v>-2748007.98</v>
+        <v>-1.9976869225502014E-7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8260,15 +2185,15 @@
       </c>
       <c r="C5" s="2">
         <f>YearlyUse_Op!C5-YearlyUse_Dev!C5</f>
-        <v>-2486293.1010134402</v>
+        <v>1.4994293451309204E-7</v>
       </c>
       <c r="D5" s="2">
         <f>YearlyUse_Op!D5-YearlyUse_Dev!D5</f>
-        <v>-2748052.48</v>
+        <v>-1.9976869225502014E-7</v>
       </c>
       <c r="E5" s="2">
         <f>YearlyUse_Op!E5-YearlyUse_Dev!E5</f>
-        <v>-2748005.01</v>
+        <v>-1.9976869225502014E-7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8280,15 +2205,15 @@
       </c>
       <c r="C6" s="2">
         <f>YearlyUse_Op!C6-YearlyUse_Dev!C6</f>
-        <v>-2448404.2999999998</v>
+        <v>-7.7998265624046326E-7</v>
       </c>
       <c r="D6" s="2">
         <f>YearlyUse_Op!D6-YearlyUse_Dev!D6</f>
-        <v>-2495776.02</v>
+        <v>-8.8987872004508972E-7</v>
       </c>
       <c r="E6" s="2">
         <f>YearlyUse_Op!E6-YearlyUse_Dev!E6</f>
-        <v>-2554888.98</v>
+        <v>-9.8999589681625366E-7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8300,15 +2225,15 @@
       </c>
       <c r="C7" s="2">
         <f>YearlyUse_Op!C7-YearlyUse_Dev!C7</f>
-        <v>20.699999999606423</v>
+        <v>3.8657817544435802E-10</v>
       </c>
       <c r="D7" s="2">
         <f>YearlyUse_Op!D7-YearlyUse_Dev!D7</f>
-        <v>197023.97999999896</v>
+        <v>-1.1298106983304024E-7</v>
       </c>
       <c r="E7" s="2">
         <f>YearlyUse_Op!E7-YearlyUse_Dev!E7</f>
-        <v>192918.02000000008</v>
+        <v>-1.1999509297311306E-7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8320,15 +2245,15 @@
       </c>
       <c r="C8" s="2">
         <f>YearlyUse_Op!C8-YearlyUse_Dev!C8</f>
-        <v>-1406277.3</v>
+        <v>-3.1499657779932022E-6</v>
       </c>
       <c r="D8" s="2">
         <f>YearlyUse_Op!D8-YearlyUse_Dev!D8</f>
-        <v>-1648887.3399999999</v>
+        <v>1.0998919606208801E-6</v>
       </c>
       <c r="E8" s="2">
         <f>YearlyUse_Op!E8-YearlyUse_Dev!E8</f>
-        <v>-1648838.07</v>
+        <v>1.0998919606208801E-6</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -8340,15 +2265,15 @@
       </c>
       <c r="C9" s="2">
         <f>YearlyUse_Op!C9-YearlyUse_Dev!C9</f>
-        <v>-1368373.6489865601</v>
+        <v>4.020053893327713E-6</v>
       </c>
       <c r="D9" s="2">
         <f>YearlyUse_Op!D9-YearlyUse_Dev!D9</f>
-        <v>-1396604.02</v>
+        <v>4.0000304579734802E-7</v>
       </c>
       <c r="E9" s="2">
         <f>YearlyUse_Op!E9-YearlyUse_Dev!E9</f>
-        <v>-1455680.52</v>
+        <v>2.9988586902618408E-7</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8360,15 +2285,15 @@
       </c>
       <c r="C10" s="2">
         <f>YearlyUse_Op!C10-YearlyUse_Dev!C10</f>
-        <v>-1368340.84898656</v>
+        <v>4.020053893327713E-6</v>
       </c>
       <c r="D10" s="2">
         <f>YearlyUse_Op!D10-YearlyUse_Dev!D10</f>
-        <v>-1593570.32</v>
+        <v>2.9399525374174118E-6</v>
       </c>
       <c r="E10" s="2">
         <f>YearlyUse_Op!E10-YearlyUse_Dev!E10</f>
-        <v>-1648519.53</v>
+        <v>-1.2000091373920441E-6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8380,15 +2305,15 @@
       </c>
       <c r="C11" s="2">
         <f>YearlyUse_Op!C11-YearlyUse_Dev!C11</f>
-        <v>-4101364</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
         <f>YearlyUse_Op!D11-YearlyUse_Dev!D11</f>
-        <v>-4273772.09</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <f>YearlyUse_Op!E11-YearlyUse_Dev!E11</f>
-        <v>-4236384.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8400,15 +2325,15 @@
       </c>
       <c r="C12" s="2">
         <f>YearlyUse_Op!C12-YearlyUse_Dev!C12</f>
-        <v>-4353325.9999999991</v>
+        <v>1.5497207641601563E-6</v>
       </c>
       <c r="D12" s="2">
         <f>YearlyUse_Op!D12-YearlyUse_Dev!D12</f>
-        <v>-4335420.88</v>
+        <v>-2.6701018214225769E-6</v>
       </c>
       <c r="E12" s="2">
         <f>YearlyUse_Op!E12-YearlyUse_Dev!E12</f>
-        <v>-4345630.1900000004</v>
+        <v>-2.4195760488510132E-6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8420,15 +2345,15 @@
       </c>
       <c r="C13" s="2">
         <f>YearlyUse_Op!C13-YearlyUse_Dev!C13</f>
-        <v>-4102342.4728899999</v>
+        <v>-4.7963112592697144E-7</v>
       </c>
       <c r="D13" s="2">
         <f>YearlyUse_Op!D13-YearlyUse_Dev!D13</f>
-        <v>-4335530.7699999996</v>
+        <v>-2.6701018214225769E-6</v>
       </c>
       <c r="E13" s="2">
         <f>YearlyUse_Op!E13-YearlyUse_Dev!E13</f>
-        <v>-4345625.6500000004</v>
+        <v>-2.4195760488510132E-6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8440,15 +2365,15 @@
       </c>
       <c r="C14" s="2">
         <f>YearlyUse_Op!C14-YearlyUse_Dev!C14</f>
-        <v>-4101473</v>
+        <v>-2.9499642550945282E-6</v>
       </c>
       <c r="D14" s="2">
         <f>YearlyUse_Op!D14-YearlyUse_Dev!D14</f>
-        <v>-4273762.7699999996</v>
+        <v>-1.3401731848716736E-6</v>
       </c>
       <c r="E14" s="2">
         <f>YearlyUse_Op!E14-YearlyUse_Dev!E14</f>
-        <v>-4236449.3600000003</v>
+        <v>1.7397105693817139E-6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8460,15 +2385,15 @@
       </c>
       <c r="C15" s="2">
         <f>YearlyUse_Op!C15-YearlyUse_Dev!C15</f>
-        <v>44.4999999999579</v>
+        <v>1.5463127017762201E-9</v>
       </c>
       <c r="D15" s="2">
         <f>YearlyUse_Op!D15-YearlyUse_Dev!D15</f>
-        <v>86.280000000090695</v>
+        <v>2.3194690526683802E-9</v>
       </c>
       <c r="E15" s="2">
         <f>YearlyUse_Op!E15-YearlyUse_Dev!E15</f>
-        <v>67.499999999999901</v>
+        <v>7.7315635088891902E-10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8480,15 +2405,15 @@
       </c>
       <c r="C16" s="2">
         <f>YearlyUse_Op!C16-YearlyUse_Dev!C16</f>
-        <v>-832986.46000000008</v>
+        <v>2.6769703254103661E-6</v>
       </c>
       <c r="D16" s="2">
         <f>YearlyUse_Op!D16-YearlyUse_Dev!D16</f>
-        <v>-858948.29999999993</v>
+        <v>-1.7200363799929619E-6</v>
       </c>
       <c r="E16" s="2">
         <f>YearlyUse_Op!E16-YearlyUse_Dev!E16</f>
-        <v>-856460.99</v>
+        <v>1.4159595593810081E-6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8500,15 +2425,15 @@
       </c>
       <c r="C17" s="2">
         <f>YearlyUse_Op!C17-YearlyUse_Dev!C17</f>
-        <v>-835876.99</v>
+        <v>9.4401184469461441E-7</v>
       </c>
       <c r="D17" s="2">
         <f>YearlyUse_Op!D17-YearlyUse_Dev!D17</f>
-        <v>-861741.22000000009</v>
+        <v>2.8195790946483612E-7</v>
       </c>
       <c r="E17" s="2">
         <f>YearlyUse_Op!E17-YearlyUse_Dev!E17</f>
-        <v>-859189.42999999993</v>
+        <v>3.4190015867352486E-6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8520,15 +2445,15 @@
       </c>
       <c r="C18" s="2">
         <f>YearlyUse_Op!C18-YearlyUse_Dev!C18</f>
-        <v>-832093.86710999801</v>
+        <v>2.1595042198896408E-7</v>
       </c>
       <c r="D18" s="2">
         <f>YearlyUse_Op!D18-YearlyUse_Dev!D18</f>
-        <v>-797220.96</v>
+        <v>-3.9499718695878983E-7</v>
       </c>
       <c r="E18" s="2">
         <f>YearlyUse_Op!E18-YearlyUse_Dev!E18</f>
-        <v>-747188.89000000013</v>
+        <v>-8.9989043772220612E-8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8540,15 +2465,15 @@
       </c>
       <c r="C19" s="2">
         <f>YearlyUse_Op!C19-YearlyUse_Dev!C19</f>
-        <v>-834974.86710999801</v>
+        <v>-1.5160767361521721E-6</v>
       </c>
       <c r="D19" s="2">
         <f>YearlyUse_Op!D19-YearlyUse_Dev!D19</f>
-        <v>-799956.96</v>
+        <v>-1.3969838619232178E-8</v>
       </c>
       <c r="E19" s="2">
         <f>YearlyUse_Op!E19-YearlyUse_Dev!E19</f>
-        <v>-749917.72000000102</v>
+        <v>2.8999056667089462E-7</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8560,15 +2485,15 @@
       </c>
       <c r="C20" s="2">
         <f>YearlyUse_Op!C20-YearlyUse_Dev!C20</f>
-        <v>-832096.73710999801</v>
+        <v>2.1595042198896408E-7</v>
       </c>
       <c r="D20" s="2">
         <f>YearlyUse_Op!D20-YearlyUse_Dev!D20</f>
-        <v>-797225.12</v>
+        <v>-3.9499718695878983E-7</v>
       </c>
       <c r="E20" s="2">
         <f>YearlyUse_Op!E20-YearlyUse_Dev!E20</f>
-        <v>-747181.85999999987</v>
+        <v>-8.9989043772220612E-8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8580,15 +2505,15 @@
       </c>
       <c r="C21" s="2">
         <f>YearlyUse_Op!C21-YearlyUse_Dev!C21</f>
-        <v>-251963.22</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <f>YearlyUse_Op!D21-YearlyUse_Dev!D21</f>
-        <v>-254952.19999999992</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <f>YearlyUse_Op!E21-YearlyUse_Dev!E21</f>
-        <v>-259881.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8600,15 +2525,15 @@
       </c>
       <c r="C22" s="2">
         <f>YearlyUse_Op!C22-YearlyUse_Dev!C22</f>
-        <v>-254046.68000000005</v>
+        <v>1.9199796952307224E-7</v>
       </c>
       <c r="D22" s="2">
         <f>YearlyUse_Op!D22-YearlyUse_Dev!D22</f>
-        <v>-300047.06999999989</v>
+        <v>-3.7497375160455704E-7</v>
       </c>
       <c r="E22" s="2">
         <f>YearlyUse_Op!E22-YearlyUse_Dev!E22</f>
-        <v>-300006.93999999994</v>
+        <v>-3.7497375160455704E-7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -8620,15 +2545,15 @@
       </c>
       <c r="C23" s="2">
         <f>YearlyUse_Op!C23-YearlyUse_Dev!C23</f>
-        <v>-264910.7043500329</v>
+        <v>1.0302755981683731E-7</v>
       </c>
       <c r="D23" s="2">
         <f>YearlyUse_Op!D23-YearlyUse_Dev!D23</f>
-        <v>-299857.75000000023</v>
+        <v>-3.7497375160455704E-7</v>
       </c>
       <c r="E23" s="2">
         <f>YearlyUse_Op!E23-YearlyUse_Dev!E23</f>
-        <v>-299955.14999999991</v>
+        <v>-3.7497375160455704E-7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8640,15 +2565,15 @@
       </c>
       <c r="C24" s="2">
         <f>YearlyUse_Op!C24-YearlyUse_Dev!C24</f>
-        <v>-251760.66999999908</v>
+        <v>1.9994331523776054E-8</v>
       </c>
       <c r="D24" s="2">
         <f>YearlyUse_Op!D24-YearlyUse_Dev!D24</f>
-        <v>-254904.79</v>
+        <v>3.1001400202512741E-7</v>
       </c>
       <c r="E24" s="2">
         <f>YearlyUse_Op!E24-YearlyUse_Dev!E24</f>
-        <v>-259713.74999999959</v>
+        <v>-2.8801150619983673E-7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8660,15 +2585,15 @@
       </c>
       <c r="C25" s="2">
         <f>YearlyUse_Op!C25-YearlyUse_Dev!C25</f>
-        <v>120.20999999987403</v>
+        <v>-9.66445438611323E-11</v>
       </c>
       <c r="D25" s="2">
         <f>YearlyUse_Op!D25-YearlyUse_Dev!D25</f>
-        <v>98.379999999903006</v>
+        <v>-9.6644543861317601E-11</v>
       </c>
       <c r="E25" s="2">
         <f>YearlyUse_Op!E25-YearlyUse_Dev!E25</f>
-        <v>176.84999999990299</v>
+        <v>-4.8322271930577698E-11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -8680,15 +2605,15 @@
       </c>
       <c r="C26" s="2">
         <f>YearlyUse_Op!C26-YearlyUse_Dev!C26</f>
-        <v>-258694.84000003288</v>
+        <v>2.4298788048326969E-7</v>
       </c>
       <c r="D26" s="2">
         <f>YearlyUse_Op!D26-YearlyUse_Dev!D26</f>
-        <v>-290687.62000000011</v>
+        <v>-7.6019205152988434E-8</v>
       </c>
       <c r="E26" s="2">
         <f>YearlyUse_Op!E26-YearlyUse_Dev!E26</f>
-        <v>-290695.33000000007</v>
+        <v>-7.6019205152988434E-8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8700,15 +2625,15 @@
       </c>
       <c r="C27" s="2">
         <f>YearlyUse_Op!C27-YearlyUse_Dev!C27</f>
-        <v>-245601.33565000008</v>
+        <v>1.5998375602066517E-7</v>
       </c>
       <c r="D27" s="2">
         <f>YearlyUse_Op!D27-YearlyUse_Dev!D27</f>
-        <v>-245562.79</v>
+        <v>-2.0200968720018864E-7</v>
       </c>
       <c r="E27" s="2">
         <f>YearlyUse_Op!E27-YearlyUse_Dev!E27</f>
-        <v>-250583.31000000008</v>
+        <v>1.100124791264534E-8</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39730,7 +33655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615FB051-7AE9-4A87-803F-04946A35F9AB}">
   <dimension ref="A1:AU36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AX21" sqref="AX21"/>
     </sheetView>
   </sheetViews>
